--- a/processed_data.xlsx
+++ b/processed_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K82"/>
+  <dimension ref="A1:O82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,6 +487,26 @@
       <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Q6</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Q7</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Q8</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Q9</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Q10</t>
         </is>
       </c>
     </row>
@@ -558,7 +578,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>This description can be classified as a "Best Practice Guide" for employers looking to hire more women in trades. It provides practical steps and advice based on evidence from behavioral science and extensive fieldwork, including interviews, workshops, and surveys with various stakeholders. The guide addresses challenges in attracting, recruiting, and retaining women in trades and offers strategies to overcome these barriers. The study is</t>
+          <t>This description can be classified as a "Best Practice Guide" for employers looking to hire more women in trades. It outlines the challenges faced by industries with a shortage of skilled trades workers and provides practical steps for attracting, recruiting, and retaining women in these roles. The guide is based on extensive research, including interviews, workshops, and surveys, making it a comprehensive resource for employers</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -573,12 +593,32 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>The underlying study is not explicitly named in the description provided.</t>
+          <t>No, a specific name or description of the underlying study is not provided.</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>No, this is not a write-up of an experimental study. It is a best practice guide for employers on how to attract, recruit, and retain women in trades, based on evidence from behavioral science and fieldwork conducted in partnership with Training Services NSW.</t>
+          <t>No, this is not a write-up of an experimental study. It is a best practice guide for employers on how to attract, recruit, and retain women in trades, based on evidence from behavioral science and fieldwork conducted through interviews, workshops, and surveys.</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Unsure</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>950</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>The description does not provide information on whether the study showed statistically significant results or what those results were.</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Employment; Education; Business; Environment / energy</t>
         </is>
       </c>
     </row>
@@ -652,14 +692,14 @@
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
-          <t>The description does not provide any specific statistical results, point estimates, or confidence intervals. It mentions that icare collected baseline data to measure the impact of their new decision aid, but it does not provide any results or statistical analysis from the study.</t>
+          <t>The description does not provide any specific statistical results, point estimates, or confidence intervals. It mentions that icare collected baseline data to measure the impact of their new decision aid, but no specific results or statistical significance are reported in the text.</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
           <t>The study appears to be high-quality and interesting due to several factors:
-1. **Practical Application**: The Behaviour Smart Bootcamp provided practical training to public servants, enabling them to apply behavioural insights to real-world challenges. This hands-on approach is likely to lead to more effective and sustainable changes in service delivery.
-2. **Diverse Challenges**: The bootcamp addressed</t>
+1. **Practical Application**: The Behaviour Smart Bootcamp provided practical training to public servants, allowing them to apply behavioural insights directly to real-world challenges faced by various NSW Government teams. This hands-on approach is likely to lead to more effective and sustainable solutions.
+2. **Diverse Challenges**:</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -674,12 +714,32 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>The underlying study is described as the "Behaviour Smart Bootcamp" conducted by NSW BIU in 2022.</t>
+          <t>The underlying study is not explicitly named in the description provided.</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>This is not a write-up of an experimental study. It is a descriptive report of a program (Behaviour Smart Bootcamp) implemented by the NSW Government to improve customer service outcomes through the application of behavioural insights. The report outlines the challenges faced, the actions taken during the bootcamp, and the outcomes observed, but it does not follow the structure of an experimental study with controlled</t>
+          <t>No, this is not a write-up of an experimental study. It is a descriptive report on the implementation and outcomes of the Behaviour Smart Bootcamp program conducted by NSW Government teams, focusing on applying behavioural insights to improve customer service and service delivery challenges.</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>I'm unsure.</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>300 surveys and six interviews</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>The description does not provide information on whether the study showed statistically significant results. It mentions that participants increased their usage of behavioral insights and that icare collected baseline data to measure the impact of their new decision aid, but it does not specify any statistical significance of the results.</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>Public administration; Business; Environment / energy; Health; Justice; Mental health</t>
         </is>
       </c>
     </row>
@@ -735,7 +795,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>This description outlines a practical application of behavioural insights within a legal aid context, which is interesting due to its focus on real-world impact and collaboration between different agencies. The study is high-quality because it involves hands-on experience, fieldwork, and co-designing interventions, which are essential for understanding and addressing complex social issues. The use of behavioural insights tools like the EAST framework and</t>
+          <t>This description can be classified as a case study or program evaluation. It details the implementation and outcomes of a specific immersion program that aimed to integrate behavioural insights into the operations of Legal Aid NSW. The study is particularly interesting because it highlights the practical application of behavioural insights in a legal context, the collaboration between different agencies, and the use of human-centred design principles. The program</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -755,7 +815,27 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>No, this is not a write-up of an experimental study. It is a description of a program and its implementation, focusing on the application of behavioural insights in practice within Legal Aid NSW. The document outlines the objectives, activities, and learnings from the program rather than detailing a controlled experimental study.</t>
+          <t>No, this is not a write-up of an experimental study. It is a description of a program and its implementation, focusing on the application of behavioural insights in practice within Legal Aid NSW. The document outlines the objectives, activities, and learnings from the program rather than detailing an experimental research study with controlled variables and outcomes.</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>I'm unsure.</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>The sample size is not given.</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>The description does not provide information on whether the study showed statistically significant results. It focuses on the experiences and insights gained from the immersion program rather than specific statistical outcomes.</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Justice; Public administration; Drugs and alcohol</t>
         </is>
       </c>
     </row>
@@ -810,8 +890,8 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>This study appears to be high-quality and interesting due to several factors:
-1. **Comprehensive Data Collection**: The study involved visiting multiple sites and conducting a significant number of interviews (46) with a diverse group of stakeholders, including service providers, academic experts, and clients. This comprehensive approach provides a well-rounded perspective on the issue.
+          <t>This study appears to be high-quality and interesting for several reasons:
+1. **Comprehensive Data Collection**: The study involved visiting multiple sites and conducting a significant number of interviews (46) with a diverse group of stakeholders, including service providers, academic experts, and clients. This comprehensive approach allows for a well-rounded understanding of the issue.
 2. **Diverse Perspectives**</t>
         </is>
       </c>
@@ -827,12 +907,32 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>No, a specific name or description of the underlying study is not provided in the description.</t>
+          <t>The description does not provide a specific name or title for the underlying study.</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>No, this is not a write-up of an experimental study. It is a descriptive report based on interviews and observations conducted at various sites to identify strategies for increasing participation in voluntary justice programs.</t>
+          <t>Yes, this is a write-up of an experimental study. The description outlines a research project that involved visiting sites, conducting interviews with various stakeholders, and identifying strategies to increase engagement in voluntary justice programs.</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Something else</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>The description does not provide information on whether the study showed statistically significant results. It focuses on qualitative findings and recommendations for increasing engagement in voluntary programs.</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Justice; Health; Drugs and alcohol; Mental health; Welfare</t>
         </is>
       </c>
     </row>
@@ -881,7 +981,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>This description is not a study but rather a personal account of a graduate's experience in the NSW Behavioural Insights Unit (BIU). It provides insights into the individual's motivations, learning opportunities, and highlights during their placement. The narrative is interesting as it offers a firsthand perspective on working within a government unit focused on applying behavioural insights to improve public service. However, it does not</t>
+          <t>This description is a personal account of a graduate's experience in the NSW Behavioural Insights Unit (BIU). It provides insights into the learning opportunities, projects, and highlights of the placement. However, it does not present a study or research findings, so it is not applicable to assess its quality or interest as a study. It is more of a narrative or testimonial rather than</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -891,17 +991,37 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>I am unsure who the partners in this study were based on the provided description.</t>
+          <t>I'm unsure who the partners in this study were based on the provided description.</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>The description does not provide a name or specific description of an underlying study. It is more of a personal account of a graduate's experience in the NSW Behavioural Insights Unit.</t>
+          <t>No, a name or description of the underlying study is not provided.</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
           <t>No, this is not a write-up of an experimental study. It is a personal account of a graduate's experience working in the NSW Behavioural Insights Unit, detailing their learning opportunities, projects, and highlights during their placement.</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>I'm unsure.</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>The sample size is not given.</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>The description does not provide information about a study or statistically significant results. It is a personal account of a graduate's experience in the NSW Behavioural Insights Unit.</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Education; Public administration; Employment</t>
         </is>
       </c>
     </row>
@@ -947,12 +1067,12 @@
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
-          <t>The description does not provide any information about statistically significant results, point estimates, or confidence intervals. It focuses on discussing techniques and strategies for implementing organizational change using behavioral insights, but does not mention any specific study results or statistical data.</t>
+          <t>The description does not provide any statistical results, point estimates, or confidence intervals. It discusses techniques and strategies for implementing organizational change using behavioral insights but does not mention any specific study results or statistical significance.</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>The description provides a comprehensive overview of how behavioural insights can be applied to facilitate organisational change. It outlines specific techniques and strategies, such as co-designing interventions, modelling desired behaviours, removing obstacles, and using incentives and gamification. The study appears to be high-quality and interesting because it offers practical, actionable steps for implementing change, emphasizes the importance of understanding the environment and behaviour</t>
+          <t>This description outlines a practical approach to implementing organizational change using behavioral insights. It provides a clear framework for understanding the environment and behavior that needs to change, and offers specific techniques to facilitate this change. The study is interesting because it combines theoretical insights with practical applications, making it relevant for practitioners looking to implement change in their organizations. However, without additional information on the methodology, data</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -962,7 +1082,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>I'm unsure who the partners in this study were.</t>
+          <t>I am unsure who the partners in this study were based on the provided description.</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -972,7 +1092,27 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>No, this is not a write-up of an experimental study. It is a descriptive article discussing strategies and techniques for implementing organizational change using behavioral insights.</t>
+          <t>No, this is not a write-up of an experimental study. It is a descriptive article discussing how to use behavioural insights to implement organisational change, outlining techniques and strategies rather than presenting experimental data or results.</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>I'm unsure.</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>The sample size is not given.</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>The description does not provide information on whether the study showed statistically significant results or what those results were. It focuses on discussing techniques and strategies for implementing organizational change using behavioral insights.</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>Business; Public administration; Employment</t>
         </is>
       </c>
     </row>
@@ -1023,12 +1163,12 @@
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
-          <t>The study did not provide specific statistical significance results, point estimates, or confidence intervals in the text. It reported percentage increases in library engagement metrics, such as a 124% increase in unique eBook pageviews, a 21% increase in library visitation, and a 15% increase in junior membership, but did not include statistical details like standard errors or confidence intervals.</t>
+          <t>The study did not provide specific point estimates or confidence intervals to indicate statistically significant results. It reported percentage increases in library engagement metrics, such as a 124% increase in unique eBook pageviews, a 21% increase in library visitation, and a 15% increase in junior membership, but did not include statistical significance details.</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>This description can be classified as a case study or project report. It details a practical application of behavioural insights in increasing community engagement at local libraries in New South Wales, Australia. The study is interesting because it demonstrates the use of behavioural frameworks like the COM-B model and the EAST framework to address real-world challenges in public service settings. It also provides measurable outcomes, such as increased</t>
+          <t>This study is interesting because it demonstrates the practical application of behavioural insights in a real-world setting, specifically in increasing community engagement with local libraries. The collaboration between various organizations and the use of established behavioural frameworks like COM-B and EAST to develop and test interventions adds to the quality of the study. The measurable results, such as increased eBook pageviews and library visitation, provide evidence</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -1048,7 +1188,27 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Yes, this is a write-up of an experimental study. The description outlines a project where behavioural insights were applied to increase community engagement at local libraries. It details the methods used, such as surveys, behavioural frameworks (COM-B and EAST), and testing interventions through data collection and A/B tests. The results of these interventions are also reported, indicating an experimental approach to evaluating the</t>
+          <t>Yes, this is a write-up of an experimental study. The description outlines a project where behavioural insights were applied to increase community engagement at local libraries. It details the methods used, such as surveys and behavioural frameworks (COM-B and EAST), and describes how interventions were tested for effectiveness through data collection and analysis, including A/B testing. The results of these interventions are also reported</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Something else</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>The sample size is not given.</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>The description does not specify whether the study showed statistically significant results. It provides some outcomes, such as a 124% increase in unique eBook pageviews, a 21% increase in library visitation, and a 15% increase in junior membership, but it does not mention statistical significance.</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>Education; Public administration</t>
         </is>
       </c>
     </row>
@@ -1115,12 +1275,12 @@
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
-          <t>The description does not provide any specific statistical results, point estimates, or confidence intervals. It focuses on qualitative findings and recommendations based on behavioural insights rather than quantitative analysis.</t>
+          <t>The description does not provide any specific statistical results, point estimates, or confidence intervals. It focuses on qualitative findings and recommendations based on behavioural insights rather than quantitative data.</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>This description can be classified as a case study or research report in the field of behavioral science and customer service. It outlines a practical application of behavioral insights to improve the way frontline staff respond to customers in distress, particularly those experiencing mental and emotional challenges. The study is high-quality and interesting because it identifies specific barriers and supports for compassionate responding, provides actionable recommendations, and demonstrates successful</t>
+          <t>This description can be classified as a case study or research report. It outlines a practical application of behavioural insights to improve the response of frontline staff to customers in distress, particularly those experiencing mental and emotional distress. The study is high-quality and interesting because it identifies specific barriers and supports to compassionate responding, provides actionable recommendations based on behavioural science, and demonstrates successful implementation and scaling of these</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -1140,7 +1300,27 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>This description does not appear to be a write-up of an experimental study. It outlines a partnership with a government agency to understand and improve staff interactions with customers in distress using behavioural insights. The document discusses findings, challenges, and recommendations but does not mention conducting an experiment or collecting experimental data.</t>
+          <t>This description does not appear to be a write-up of an experimental study. It outlines a partnership with a government agency to understand and improve staff interactions with customers in distress using behavioural insights. The document discusses challenges, findings, and recommendations but does not mention conducting an experiment or collecting experimental data.</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Unsure</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>The sample size is not given.</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>The description does not provide information on whether the study showed statistically significant results. It focuses on the findings and recommendations based on behavioural insights rather than statistical analysis.</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>Mental health; Public administration; Welfare</t>
         </is>
       </c>
     </row>
@@ -1203,7 +1383,7 @@
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>The description does not provide specific statistical results, point estimates, or confidence intervals. It outlines the findings and recommendations from the research but does not mention any statistically significant results or numerical data.</t>
+          <t>The description does not provide specific statistical results, point estimates, or confidence intervals. It focuses on the findings and recommendations from the research and initiatives to encourage more women to enter trades, but it does not mention any statistically significant results or detailed quantitative data.</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1228,7 +1408,27 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>This is not a write-up of an experimental study. It is a report on an initiative aimed at increasing women's participation in male-dominated trades, which includes a review of existing research, identification of barriers and enablers, and recommendations for behavioral change. It describes the approach taken by Training Services NSW and the NSW Behavioural Insights Unit, but it does not detail a specific</t>
+          <t>This is not a write-up of an experimental study. It is a report on an initiative aimed at increasing women's participation in male-dominated trades, which includes a review of existing research, identification of barriers and enablers, and recommendations for behavioral change. It involves the application of behavioral insights and data collection through interviews and focus groups, but it does not describe a controlled experimental</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>I'm unsure.</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>The sample size is not given.</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>The description does not provide specific information about statistically significant results from the study. It outlines the findings and recommendations based on the research conducted but does not mention statistical significance.</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>Education; Employment; Business</t>
         </is>
       </c>
     </row>
@@ -1275,7 +1475,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>This description outlines a practical initiative aimed at addressing behavioural barriers in service delivery within the NSW public sector. The Behaviour Smart Bootcamp is a targeted program designed to equip public servants with skills in behavioural insights and human-centred design to improve service accessibility and effectiveness. The program's structure, involving workshops and real-world application, suggests a hands-on approach to learning and problem-solving. The</t>
+          <t>This description does not provide enough specific information to determine if the study is particularly high-quality and interesting. It outlines the goals and structure of the Behaviour Smart Bootcamp, but does not include details on the outcomes, methodologies, or evaluations of the program's effectiveness. More information on the results and impact of the Bootcamp would be needed to assess its quality and interest level.</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1290,12 +1490,32 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>The description does not provide the name or description of an underlying study. It describes a program called the Behaviour Smart Bootcamp, which is an initiative by the NSW Behavioural Insights Unit to train public servants in addressing behavioural barriers in service delivery.</t>
+          <t>The description does not provide the name or description of an underlying study.</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>No, this is not a write-up of an experimental study. It is a description of a training program (Behaviour Smart Bootcamp) designed to equip public servants with skills to address behavioural barriers in service delivery. It outlines the purpose, structure, and goals of the Bootcamp, but does not detail any experimental research or study results.</t>
+          <t>No, this is not a write-up of an experimental study. It is a description of a training program called the Behaviour Smart Bootcamp, which aims to equip NSW public servants with skills to address behavioural barriers in service delivery. The description outlines the purpose, structure, and goals of the Bootcamp, but does not detail any experimental research or study conducted.</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>The description does not provide enough information to determine the design of the experiment.</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>The sample size is not given.</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>The description does not provide information on whether the study showed statistically significant results or what the results were.</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>Public administration; Education; Business</t>
         </is>
       </c>
     </row>
@@ -1345,12 +1565,12 @@
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>The description does not provide any statistically significant results, point estimates, or confidence intervals. It focuses on the process and outcomes of the Sludge-a-thon event, highlighting the identification of customer frictions and the development of solutions, but does not include quantitative data or statistical analysis.</t>
+          <t>The description does not provide any statistically significant results, point estimates, or confidence intervals. It focuses on the process and outcomes of the Sludge-a-thon event, highlighting the identification of customer frictions and the development of solutions, but does not include specific statistical data or analysis results.</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>This description outlines a well-organized initiative aimed at improving customer experience by identifying and eliminating "sludge," or friction points, in government processes. The study is interesting because it involves a collaborative effort across multiple government clusters, uses a structured audit method, and incorporates behavioral insights to develop practical solutions. The involvement of experts and a guest speaker adds depth to the initiative, and the</t>
+          <t>This description outlines a practical initiative aimed at improving customer experience by identifying and eliminating "sludge," or friction points, in government processes. The study is interesting because it involves a collaborative effort across multiple government clusters, uses a structured audit method, and incorporates behavioral insights to develop solutions. The initiative's focus on real-world application, such as simplifying processes and improving communication, adds to</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1360,7 +1580,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>I'm unsure who the partners in this study were based on the provided description.</t>
+          <t>The description does not specify the partners involved in the study.</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1370,7 +1590,27 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>No, this is not a write-up of an experimental study. It is a description of an event called "Sludge-a-thon" where teams worked on identifying and eliminating customer frictions (referred to as "sludge") in various processes within the NSW Government. The document outlines the activities, outcomes, and future plans related to this initiative.</t>
+          <t>No, this is not a write-up of an experimental study. It is a description of an initiative or event focused on identifying and reducing "sludge" or friction in customer interactions with the NSW Government. It outlines the process, examples of issues identified, solutions developed, and future plans, but it does not follow the structure or methodology of an experimental study.</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Unsure</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>Twelve teams across eight NSW Government clusters.</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>The description does not provide information on whether the study showed statistically significant results. It focuses on the process and outcomes of the Sludge-a-thon event, highlighting the identification of customer frictions and the development of solutions, but does not mention statistical analysis or results.</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>Public administration; Health; Disability; Business</t>
         </is>
       </c>
     </row>
@@ -1414,12 +1654,12 @@
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t>The description does not provide any statistical results, point estimates, or confidence intervals. It focuses on the development and purpose of sludge guides to improve customer engagement with the NSW government by reducing sludge in customer services.</t>
+          <t>The description does not provide any specific statistical results, point estimates, or confidence intervals. It focuses on the development and purpose of sludge guides to improve customer engagement with the NSW government by reducing sludge in customer services.</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>This description can be classified as a government initiative or public service improvement project. It outlines efforts by the NSW Government to address and reduce "sludge" in customer interactions, which refers to unnecessary complexity and barriers in processes. The initiative involves creating guides to help public servants improve customer engagement by simplifying communication channels and processes. The description highlights the use of evidence-based techniques and case studies</t>
+          <t>This description can be classified as a government initiative or program aimed at improving customer engagement and service delivery by addressing and reducing "sludge" in processes. It outlines the development and use of sludge guides to help public servants enhance customer interactions and streamline services.</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1429,17 +1669,37 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>I'm sorry, but the description does not provide information about the partners involved in the study.</t>
+          <t>I'm unsure who the partners in this study were based on the provided description.</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>No, a specific name or description of the underlying study is not provided.</t>
+          <t>No, a specific name or description of the underlying study is not provided in the description.</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
           <t>No, this is not a write-up of an experimental study. It is a description of a practical initiative by the NSW Government to address and improve customer engagement by reducing "sludge" in their processes. The document outlines the development and purpose of sludge guides, which are resources designed to help public servants improve customer interactions by providing evidence-based tips, examples, and checklists.</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>I'm unsure.</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>The sample size is not given.</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>The description does not provide information on whether the study showed statistically significant results or what those results were. It focuses on the development and purpose of sludge guides to improve customer engagement with the NSW government.</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>Public administration</t>
         </is>
       </c>
     </row>
@@ -1508,12 +1768,12 @@
         <is>
           <t>The study showed statistically significant results. Here are the results mentioned in the text:
 1. Personalised messages to first-year learners reduced the dropout rate by 16 percent.
-2. Simple and concise reminder text messages to tenants resulted in more than three-quarters paying their overdue rent or commencing a payment plan, compared to only 68.5 percent of tenants who did not receive</t>
+2. Simple and concise reminder messages to tenants resulted in more than three-quarters paying their overdue rent or commencing a payment plan, compared to only 68.5 percent of tenants who did not receive a</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>This description can be classified as a practical guide or instructional article. It provides actionable tips and strategies for maximizing the impact of government text messages using behavioral insights. The study is interesting because it offers evidence-based recommendations and real-world examples of how personalized and well-timed text messages can improve customer engagement and outcomes in various contexts, such as education, healthcare, and social services. The</t>
+          <t>This description can be classified as a "Research Study" or "Case Study" in the field of communication and behavioral insights. It provides practical tips and evidence-based strategies for maximizing the impact of government text messages, supported by examples and data from trials. The study is high-quality and interesting because it uses behavioral insights to demonstrate the effectiveness of personalized, concise, and well-timed</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1534,6 +1794,26 @@
       <c r="K14" t="inlineStr">
         <is>
           <t>Yes, this is a write-up of an experimental study.</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Clustered RCT</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>The sample size is not given.</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>The study showed statistically significant results. The personalized text messages reduced the dropout rate of learners by 16 percent, increased the rate of overdue rent payments or payment plan commencements to more than three quarters, reduced missed hospital appointments by 33.7 percent, and increased parental engagement by 5 percent.</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>Public administration; Education; Health; Housing / homelessness</t>
         </is>
       </c>
     </row>
@@ -1591,14 +1871,14 @@
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
-          <t>The study did not show statistically significant differences in completion rates between the pro-social and self-interest message frames. However, it found that both pro-social and self-interest frames significantly increased training start rates compared with the control. The completion rate across all three emails increased to 22.4 per cent during the trial period, up from 2.1 per cent before the trial.</t>
+          <t>The study did not show statistically significant differences in completion rates between the pro-social and self-interest message frames. However, it found that both frames significantly increased training start rates compared with the control. The completion rate across all three emails increased to 22.4 per cent from 2.1 per cent before the trial. There are no specific point estimates or confidence intervals provided in</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>This study appears to be high-quality and interesting for several reasons:
-1. **Use of Randomized Controlled Trial (RCT):** The study employs a randomized controlled trial, which is considered the gold standard in research for determining causality. This method helps ensure that the results are due to the intervention itself rather than other factors.
-2. **Behavioral Insights Application:** The study</t>
+          <t>This study is particularly high-quality and interesting due to several factors:
+1. **Use of Randomized Controlled Trial (RCT):** The study employs a rigorous experimental design, which is the gold standard for determining causal relationships. By using RCT, the researchers can confidently attribute changes in training completion rates to the interventions tested.
+2. **Behavioral Insights Application:** The study applies</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1619,6 +1899,26 @@
       <c r="K15" t="inlineStr">
         <is>
           <t>Yes, this is a write-up of an experimental study.</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Regular RCT</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>The sample size is not given.</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>Yes, the study showed statistically significant results. The pro-social and self-interest message frames significantly increased training start rates compared with the control email. However, there were no significant differences in completion rates between the pro-social and self-interest messages.</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>Disability; Public administration; Employment</t>
         </is>
       </c>
     </row>
@@ -1672,9 +1972,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>This description highlights a high-quality and interesting study due to several factors:
-1. **Evidence-Based Approach**: The program is based on research conducted by the NSW Behavioural Insights Unit, which identified a specific problem (high dropout rates among first-year apprentices and trainees) and developed a targeted intervention (Employer Support text service) to address it.
-2. **Collaboration and Stake</t>
+          <t>This description can be classified as a case study or program evaluation. It details the implementation and outcomes of a specific intervention (the Employer Support text service) aimed at improving apprenticeship and traineeship completion rates. The study is interesting because it highlights the application of behavioural insights to address a real-world problem, demonstrating a significant reduction in dropout rates. The collaboration with the NSW Behavioural Insights</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1695,6 +1993,26 @@
       <c r="K16" t="inlineStr">
         <is>
           <t>No, this is not a write-up of an experimental study. It is an interview discussing the implementation and outcomes of a program designed to improve apprenticeship and traineeship completion rates using behavioural insights.</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>I'm unsure.</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>The sample size is not given.</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>Yes, the study showed statistically significant results. The Employer Support text service successfully reduced dropout rates by 16 percent.</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>Education; Employment; Public administration</t>
         </is>
       </c>
     </row>
@@ -1746,14 +2064,14 @@
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
-          <t>The study did not provide specific statistical significance results, point estimates, or confidence intervals in the text. It reported that 89% of users preferred learning via an online game, 92% enjoyed playing the game, and 100% felt more confident in identifying phishing emails after completing the game. However, no statistical analysis details or confidence intervals were mentioned.</t>
+          <t>The study did not provide specific statistical results, point estimates, or confidence intervals in the text. It mentioned that 89% of users preferred learning via an online game, 92% enjoyed playing the game, and 100% felt more confident in identifying phishing emails after completing the game, but these are descriptive statistics rather than inferential statistics with confidence intervals or standard errors.</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
           <t>This study is particularly interesting and high-quality due to several factors:
-1. **Innovative Approach**: The study explores the use of gamification, an innovative approach, to enhance cyber security education. This method is engaging and has been shown to improve learning outcomes compared to traditional training methods.
-2. **Behavioral Principles**: The game design incorporates behavioral principles such as simpl</t>
+1. **Innovative Approach**: The study explores the use of gamification, an innovative approach, to enhance cyber security education. This method is not only engaging but also addresses the limitations of traditional training methods.
+2. **Behavioral Principles**: The game design incorporates behavioral principles such as simplification,</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1768,12 +2086,32 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>The description does not provide a specific name for the underlying study.</t>
+          <t>Yes, the underlying study is described in the abstract. It involves the development and testing of a cyber security game called 'Tour de Phish' to complement existing training for NSW government employees.</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
           <t>Yes, this is a write-up of an experimental study.</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>Unsure</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>The sample size is not given.</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>The study did not explicitly mention statistically significant results. However, it reported that 89% of users preferred learning via the online game, 92% enjoyed playing it, and 100% felt more confident in identifying phishing emails after completing the game.</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>Education; Public administration; Disability</t>
         </is>
       </c>
     </row>
@@ -1828,7 +2166,7 @@
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
-          <t>The description does not provide specific statistical results, point estimates, or confidence intervals. It mentions a 22 percent increase in customers taking the preferred option for password resets, equating to a saving of 7 minutes per customer, but no statistical significance or confidence intervals are provided.</t>
+          <t>The description does not provide specific statistical results, point estimates, or confidence intervals. It mentions a 22 percent increase in customers taking the preferred option for password reset, equating to a saving of 7 minutes per customer, but no statistical significance or confidence intervals are provided.</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1848,12 +2186,32 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>The underlying study is not explicitly named in the description provided.</t>
+          <t>The underlying study is not explicitly named in the description. However, the description refers to the "sludge audit" method developed by the NSW Behavioural Insights Unit and the event called the "Sludge-a-thon" where this method was applied.</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>No, this is not a write-up of an experimental study. It is a descriptive account of an initiative called the "Sludge-a-thon" conducted by the NSW Behavioural Insights Unit to identify and eliminate unnecessary friction in customer service processes. The description outlines the methods used, such as the sludge audit, and provides examples of improvements made, but it does not follow the</t>
+          <t>No, this is not a write-up of an experimental study. It is a descriptive account of an initiative called the "sludge-a-thon" conducted by the NSW Behavioural Insights Unit to identify and eliminate unnecessary friction in customer service processes. The document outlines the methods used, such as the sludge audit, and provides examples of improvements made, but it does not follow the</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>I am unsure.</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>The sample size is not given.</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>The description does not provide information on whether the study showed statistically significant results. It mentions a 22 percent increase in customers taking the preferred option for password resets, but it does not specify if this result is statistically significant.</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>Public administration</t>
         </is>
       </c>
     </row>
@@ -1920,12 +2278,12 @@
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Non-empirical study</t>
+          <t>This description does not provide any study results, point estimates, or confidence intervals. It is an announcement for an event called "Sludge-a-thon 2022" aimed at improving customer experience in NSW Government processes.</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>This description is an announcement for an event, specifically the "Sludge-a-thon 2022," which is a government initiative aimed at improving customer experience by eliminating inefficiencies (referred to as "sludge") in government processes. It is not a study, so it does not have characteristics typically associated with high-quality research studies, such as methodology, data analysis,</t>
+          <t>Event Announcement</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1935,7 +2293,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>The description does not provide information about any partners involved in the Sludge-a-thon 2022.</t>
+          <t>I'm unsure who the partners were in this study based on the provided description.</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1945,7 +2303,27 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>No, this is not a write-up of an experimental study. It is a description of an event called "Sludge-a-thon 2022," which is an initiative aimed at improving customer experience by eliminating inefficiencies in government processes. It provides information on how to participate, what participants will gain, and how to apply.</t>
+          <t>No, this is not a write-up of an experimental study. It is an announcement and invitation for a government event called the "sludge-a-thon," which aims to improve customer experience by eliminating inefficiencies in government processes.</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>I am unsure.</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>The sample size is not given.</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>The description does not provide information about a study or its results. It is an announcement for an event called the "Sludge-a-thon 2022," which aims to improve customer experience by eliminating inefficiencies in government processes.</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>Public administration</t>
         </is>
       </c>
     </row>
@@ -2023,8 +2401,8 @@
       <c r="G20" t="inlineStr">
         <is>
           <t>The study appears to be high-quality and interesting for several reasons:
-1. **Evidence-Based Approach**: The study uses a randomised controlled trial, which is a robust method for evaluating the effectiveness of interventions. This adds credibility to the findings.
-2. **Behavioral Science Application**: The use of behaviorally designed message templates indicates an application of behavioral science principles, which</t>
+1. **Evidence-Based Approach**: The study uses behavioural science principles to design the SMS messages, which suggests a strong theoretical foundation.
+2. **Randomised Controlled Trial**: The use of a randomised controlled trial (RCT) to test the impact of the SMS messages adds rigor to the study, as</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -2045,6 +2423,26 @@
       <c r="K20" t="inlineStr">
         <is>
           <t>Yes, this is a write-up of an experimental study.</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>Clustered RCT</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>26005 students</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>Yes, the study showed statistically significant results. Parents and carers had 5 percent higher engagement at schools that sent the messages compared to those at schools that did not send messages.</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>Parenting; Education; Public administration</t>
         </is>
       </c>
     </row>
@@ -2108,12 +2506,12 @@
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
         <is>
-          <t>The description does not provide any specific statistical results, point estimates, or confidence intervals. It focuses on qualitative findings and recommendations for applying training effectively in the workplace.</t>
+          <t>The description does not provide any specific statistical results, point estimates, or confidence intervals. It focuses on qualitative insights and recommendations for applying training effectively in the workplace.</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>This description outlines a study focused on improving the application of training in the workplace for public servants. The study is interesting because it addresses a common challenge in professional development: the gap between learning new skills in a training environment and applying them effectively in a work setting. The study's approach is practical, involving collaboration with two NSW Government frontline agencies to identify strategies that encourage the use of</t>
+          <t>This description can be classified as a case study or report on improving the effectiveness of training programs for public servants. It outlines the challenges faced in applying training in the workplace, the interventions implemented, and the lessons learned from working with two NSW Government frontline agencies. The study focuses on behavioral insights to enhance the application of training, making it a practical guide for organizations looking to improve training</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -2133,7 +2531,27 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>This description does not appear to be a write-up of an experimental study. It outlines a practical approach and insights gained from working with two NSW Government frontline agencies to encourage the application of training in the workplace. It focuses on strategies and observations rather than detailing a formal experimental design, methodology, or statistical analysis typically found in experimental studies.</t>
+          <t>No, this is not a write-up of an experimental study. It is a descriptive report on efforts to improve the application of training skills in the workplace, based on observations and interventions with two NSW Government frontline agencies.</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>Unsure</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>The sample size is not given.</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>The description does not provide information on whether the study showed statistically significant results. It focuses on the strategies and insights gained from working with the NSW Government agencies to encourage the application of training in the workplace.</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>Public administration; Education</t>
         </is>
       </c>
     </row>
@@ -2229,7 +2647,7 @@
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr">
         <is>
-          <t>The study showed statistically significant results. The intervention led to increased compliance with self-isolation, with 92.5% of people in the treatment group reporting they never left home compared to 89.5% in the control group. This difference was statistically significant. The intervention could decrease the number of people leaving home before getting their test results by 300 people each day,</t>
+          <t>Yes, the study showed statistically significant results. The intervention led to increased compliance with self-isolation, with 92.5% of people in the treatment group reporting they never left home compared to 89.5% in the control group. This difference was statistically significant. The intervention could decrease the number of people leaving home before getting their test results by 300 people each</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -2257,6 +2675,26 @@
       <c r="K22" t="inlineStr">
         <is>
           <t>Yes, this is a write-up of an experimental study.</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>Clustered RCT</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>3,289</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>Yes, the study showed statistically significant results. The intervention led to increased compliance with self-isolation, with 92.5% of people in the treatment group reporting they never left home compared to 89.5% in the control group. This equates to 29% fewer people breaching self-isolation weekly.</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>Health; Public administration</t>
         </is>
       </c>
     </row>
@@ -2329,12 +2767,12 @@
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
-          <t>The description provided does not include any specific statistical results, point estimates, or confidence intervals. It outlines ten tips for communicating information to customers in an emergency, but it does not mention any study results or statistical analysis.</t>
+          <t>The description provided does not include any specific study results, point estimates, or confidence intervals. It outlines ten tips for communicating information to customers in an emergency, but it does not mention any statistical analysis or results from a study.</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>This description can be classified as a "Guideline/Best Practices" document. It provides practical tips and strategies for effectively communicating with customers during emergencies, based on evidence and research. The document is structured to address specific barriers faced by customers in stressful situations and offers actionable advice for overcoming these challenges. It is intended for use by NSW public servants and others who communicate with individuals and</t>
+          <t>This description can be classified as a "Guideline/Best Practices" document. It provides practical advice and strategies for effectively communicating with customers during emergencies, based on identified barriers and evidence-based tips. The document is aimed at NSW public servants and offers actionable steps to improve communication in stressful situations.</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -2349,12 +2787,34 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>No, a specific name or description of the underlying study is not provided.</t>
+          <t>Yes, the description provides the names of underlying studies in the references section. The studies mentioned are:
+1. Grothmann, T., &amp; Reusswig, F. (2006). People at risk of flooding: Why some residents take precautionary action while others do not. Natural hazards, 38(1), 101-120.
+2. Burd,</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
           <t>No, this is not a write-up of an experimental study. It is a guide or set of recommendations based on evidence and research findings, aimed at improving communication with customers during emergencies.</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>I'm unsure.</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>The sample size is not given.</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>The description provided does not mention any specific study or statistical results. It outlines ten tips for effectively communicating information to customers during emergencies, based on evidence and behavioral insights. There is no mention of a study with statistically significant results in the text.</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>Public administration; Environment / energy; Business</t>
         </is>
       </c>
     </row>
@@ -2440,7 +2900,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>This description can be classified as a research study or report focused on improving the recruitment and retention of people with disabilities in the NSW public service. It outlines the challenges faced, the methods used to gather insights, and the results and recommendations for addressing these challenges. The study employs behavioural insights to propose solutions for improving workplace inclusion and support for people with disabilities. It also highlights the importance</t>
+          <t>This description can be classified as a "Research Study" focused on improving the recruitment and retention of people with disabilities in the NSW public service. It outlines the challenges faced, the methods used to gather insights, and the results and recommendations derived from the study. The study employs behavioural insights to address barriers and improve processes, making it a comprehensive and practical approach to enhancing workplace inclusion for</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -2460,7 +2920,27 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Yes, this is a write-up of an experimental study. The description outlines a project that involved fieldwork, interviews, and a randomised control trial to improve disability awareness and training in the NSW public service. The study used behavioural insights to identify barriers and develop interventions to support the recruitment and retention of people with disability.</t>
+          <t>Yes, this is a write-up of an experimental study. The description details a project that involved fieldwork, interviews, and a randomised control trial to improve disability awareness and training in the NSW public service. The study used behavioural insights to identify barriers and develop interventions to support the recruitment and retention of people with disability.</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>I am unsure.</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>The description does not specify whether the study showed statistically significant results. It provides insights and recommendations based on fieldwork and interviews but does not mention statistical significance.</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>Disability; Public administration; Employment</t>
         </is>
       </c>
     </row>
@@ -2511,7 +2991,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>The description can be classified as a research study focused on understanding the impact of COVID-19 on correctional staff's decision-making and training program implementation. It highlights the use of remote methods, existing data, and behavioral journey mapping to gather insights. The study is particularly interesting due to its adaptation to COVID-19 restrictions, innovative use of online methods, and focus on behavioral change</t>
+          <t>This description can be classified as a research study focused on consulting customers during the COVID-19 pandemic. It outlines the methods used to gather data and insights from correctional staff in New South Wales, Australia, during the pandemic. The study employs various remote methods such as telephone focus groups, online surveys, and interviews to understand the impact of COVID-19 on staff behavior and decision</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -2531,7 +3011,27 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Yes, this is a write-up of an experimental study. The description outlines a research project that involved collecting data through various methods such as telephone focus groups, online surveys, and interviews to understand the motivations and behaviors of correctional staff in implementing a training program during COVID-19. The study also involved analyzing existing data and mapping behavioral journeys, which are typical components of an experimental</t>
+          <t>This description does not appear to be a write-up of an experimental study. It outlines a qualitative research approach using methods such as telephone focus groups, online surveys, and interviews to gather insights about correctional staff's motivations and the impact of COVID-19 on their work environment. The study focuses on understanding decision-making processes and behavioral changes rather than testing a specific hypothesis or intervention in</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>Something else</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>The sample size is not given.</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>The description does not provide information on whether the study showed statistically significant results. It focuses on the methods used and the insights gained, but does not mention specific statistical outcomes or results.</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>Justice; Public administration</t>
         </is>
       </c>
     </row>
@@ -2586,12 +3086,12 @@
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
-          <t>The description does not provide any specific results or statistical data, such as point estimates or confidence intervals, regarding the impact of the FITMIND program. It mentions that Fire and Rescue NSW plan to test the impact of FITMIND by running a randomised controlled trial later in the year, but no results are provided in the text.</t>
+          <t>The description does not provide any results or statistical data from the study. It mentions that Fire and Rescue NSW plan to test the impact of FITMIND by running a randomised controlled trial later this year, but no results or point estimates are included in the text.</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>This description can be classified as a report on a behavioral intervention program aimed at improving mental health and resilience among firefighters. It outlines the strategies used to encourage healthy behaviors and the planned evaluation of the program's impact. The study is interesting due to its application of behavioral science principles to address mental health challenges in a high-stress profession, and its use of a randomized controlled trial to</t>
+          <t>This description can be classified as a study or program description focused on mental health and behavioral change among firefighters. It outlines the implementation of the FITMIND program, which uses behavioral science strategies to promote resilience and mentally healthy behaviors. The study is interesting because it addresses a critical issue of mental health in high-stress professions and uses evidence-based strategies to encourage behavioral change. The planned</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -2611,7 +3111,27 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>No, this is not a write-up of an experimental study. It is a description of a program (FITMIND) designed to improve mental health and resilience among firefighters, detailing the strategies used to encourage healthy behaviors and the plans to evaluate the program's impact through a future randomised controlled trial.</t>
+          <t>No, this is not a write-up of an experimental study. It is a description of a program (FITMIND) designed to improve mental health and resilience among firefighters, detailing the strategies used to encourage healthy behaviors and the plans for future evaluation through a randomised controlled trial.</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>Regular RCT</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>The sample size is not given.</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>The description does not provide information on whether the study showed statistically significant results. It mentions that Fire and Rescue NSW plan to test the impact of FITMIND by running a randomised controlled trial later in the year, but no results are provided.</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>Mental health; Public administration; Health</t>
         </is>
       </c>
     </row>
@@ -2656,12 +3176,12 @@
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
-          <t>The description does not provide any specific statistical results, point estimates, or confidence intervals. It focuses on the campaign's objectives, the incorporation of behavioural insights, and the collaboration with the Behavioural Insights Unit, but does not mention any quantitative outcomes or statistical significance.</t>
+          <t>The description does not provide any specific statistical results, point estimates, or confidence intervals. It focuses on the campaign's objectives, the incorporation of behavioural insights, and the collaboration with the Behavioural Insights Unit, but does not mention any quantitative outcomes or statistical significance of the campaign's impact.</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>This description can be classified as a case study or report on a public safety campaign. It details the development and implementation of an Electrical Safety Awareness campaign in New South Wales (NSW), Australia, which incorporates behavioural insights to address the issue of electrical faults causing house fires. The study is interesting because it highlights the collaboration between government departments, industry partners, and the Behavioural Insights</t>
+          <t>This description can be classified as a case study or report on a public safety campaign. It details the development and implementation of an Electrical Safety Awareness campaign in New South Wales (NSW), Australia, which was informed by behavioural insights. The study is interesting because it highlights the collaboration between government departments, industry partners, and the Behavioural Insights Unit to address a significant public safety issue</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -2681,7 +3201,27 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>No, this is not a write-up of an experimental study. It is a description of a public safety campaign that incorporates behavioural insights to address electrical safety issues. The document outlines the campaign's objectives, the behavioural challenges it addresses, and the collaboration with the Behavioural Insights Unit to improve the campaign's effectiveness. It does not describe an experimental study or present experimental data.</t>
+          <t>No, this is not a write-up of an experimental study. It is a description of a public safety campaign that incorporates behavioural insights to address electrical safety issues. The document outlines the campaign's objectives, the behavioural challenges it addresses, and the principles used to improve its effectiveness. However, it does not detail any experimental design, methodology, or results that would typically characterize an experimental</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>If you are unsure, please just tell me that.</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>The sample size is not given.</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>The description does not provide information on whether the study showed statistically significant results or what those results were.</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>Public administration; Health; Housing / homelessness</t>
         </is>
       </c>
     </row>
@@ -2751,9 +3291,9 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>This study is particularly high-quality and interesting due to several factors:
-1. **Behavioral Insights Application**: The study effectively applies behavioral insights to address a real-world problem, demonstrating the practical utility of behavioral science in policy-making and program implementation.
-2. **Randomized Controlled Trial (RCT)**: The use of a randomized controlled trial design adds rigor to the study, allowing</t>
+          <t>This study appears to be high-quality and interesting for several reasons:
+1. **Behavioral Insights Application**: The study effectively applies behavioral insights to address a real-world problem, demonstrating the practical application of psychological principles to improve outcomes in education and training.
+2. **Randomized Controlled Trial**: The use of a randomized controlled trial (RCT) design adds rigor to the study</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -2768,12 +3308,32 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Yes, the description provides the name of the underlying study: "Increasing completion of apprenticeships and traineeships using behaviourally informed messages."</t>
+          <t>The description does not provide a specific name for the underlying study.</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
           <t>Yes, this is a write-up of an experimental study.</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>Regular RCT</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>13,065</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>Yes, the study showed statistically significant results. The Fair Go message was most effective, reducing 12-month dropout rates by 2.8 percentage points compared to the control group (15.1% for treatment vs 17.9% for the control group).</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>Education; Employment; Public administration</t>
         </is>
       </c>
     </row>
@@ -2825,7 +3385,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>This description can be classified as a study or report on the development and implementation of a digital app, "Avow," aimed at increasing compliance with Apprehended Domestic Violence Orders (ADVOs) through the use of behavioural insights. The study is interesting because it addresses a significant social issue—domestic violence—by leveraging technology and behavioural science to improve compliance with legal orders</t>
+          <t>This description can be classified as a study or report on the development and implementation of a digital app, "Avow," designed to increase compliance with Apprehended Domestic Violence Orders (ADVOs) using behavioural insights. The study is interesting because it addresses a significant social issue—domestic violence—by leveraging technology and behavioural science to improve compliance with legal orders. The app</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -2840,12 +3400,32 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Yes, the underlying study is described as the development and implementation of the 'Avow' app by the NSW Behavioural Insights Unit, Department of Communities and Justice, and Miroma Project Factory to increase compliance with Apprehended Domestic Violence Orders (ADVOs).</t>
+          <t>Yes, the description provides the name of the underlying study or project, which is the development of the 'Avow' app by the NSW Behavioural Insights Unit, Department of Communities and Justice, and Miroma Project Factory.</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
           <t>No, this is not a write-up of an experimental study. It is a description of a digital app called 'Avow' developed to increase compliance with Apprehended Domestic Violence Orders (ADVOs) by addressing behavioural barriers. The document outlines the app's features and the behavioural insights used in its development, but it does not detail an experimental study or its results.</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>Unsure</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>The sample size is not given.</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>The description does not provide information on whether the study showed statistically significant results or what the specific results were.</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>Justice; Public administration</t>
         </is>
       </c>
     </row>
@@ -2875,7 +3455,7 @@
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
-          <t>The description provided does not include any specific study results, point estimates, or confidence intervals. It is a general overview of the efforts by the New South Wales Government to address 'sludge' and improve government services, but it does not mention any statistical analysis or results.</t>
+          <t>The description provided does not include any specific study results, point estimates, or confidence intervals. It is a general overview of the efforts by the New South Wales Government to address 'sludge' and improve government services, without detailing any statistical findings or results.</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -2901,6 +3481,26 @@
       <c r="K30" t="inlineStr">
         <is>
           <t>No, this is not a write-up of an experimental study. It is a description of a podcast discussing the efforts of the New South Wales Government in addressing 'sludge' and improving government services and market reform.</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>I'm unsure.</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>The sample size is not given.</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>The description does not provide information on whether the study showed statistically significant results or what the specific results were. It focuses on the efforts and initiatives of the NSW Government in addressing 'sludge' and improving services.</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>Public administration; Business</t>
         </is>
       </c>
     </row>
@@ -2964,9 +3564,9 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>This study is particularly high-quality and interesting due to several factors:
-1. **Evidence-Based Approach**: The study uses behavioural insights, specifically loss aversion, to design SMS reminders that effectively reduce missed hospital appointments. This approach is grounded in established psychological principles, enhancing the credibility of the intervention.
-2. **Significant Impact**: The intervention led to a substantial reduction in</t>
+          <t>This study appears to be high-quality and interesting for several reasons:
+1. **Evidence-Based Approach**: The study uses behavioural insights, specifically loss aversion, to design SMS reminders. This approach is grounded in established psychological principles, which adds credibility to the intervention.
+2. **Quantifiable Impact**: The study provides clear, quantifiable results, such as a 34</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -2987,6 +3587,26 @@
       <c r="K31" t="inlineStr">
         <is>
           <t>Yes, this is a write-up of an experimental study.</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>Pre-post study</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>5,447 SMS reminders were sent.</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>Yes, the study showed statistically significant results. The intervention led to a 33.7% reduction in missed appointments, with a p-value of less than .001.</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>Health; Public administration</t>
         </is>
       </c>
     </row>
@@ -3039,7 +3659,9 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>This description outlines a practical application of behavioural insights to improve government processes by reducing "sludge," or unnecessary frictions that hinder customer experiences. The study is interesting because it introduces a structured approach, the "sludge audit," to identify and prioritize areas for improvement. It also provides real-world examples of successful implementations, such as reducing follow-up inquiries in the home building trade license</t>
+          <t>The study appears to be high-quality and interesting for several reasons:
+1. **Innovative Approach**: The introduction of a 'sludge audit' framework is an innovative approach to improving customer experience in government services. It applies behavioral science principles to identify and reduce unnecessary frictions in processes.
+2. **Evidence-Based**: The framework is based on evidence and methods from behavioral</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -3054,12 +3676,32 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Yes, the description provides the name of the underlying study as a "sludge audit" framework developed by the NSW Behavioural Insights Unit.</t>
+          <t>Yes, the underlying study is described as the development and application of a 'sludge audit' framework by the NSW Behavioural Insights Unit to identify, quantify, and prioritize 'sludge' in government processes.</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>No, this is not a write-up of an experimental study. It is a descriptive article about the efforts of the NSW Behavioural Insights Unit to reduce bureaucratic friction, or "sludge," in government processes using a framework they developed. It includes examples of their work and future plans, but it does not detail a specific experimental study.</t>
+          <t>No, this is not a write-up of an experimental study. It is a descriptive article about the efforts of the NSW Behavioural Insights Unit to reduce bureaucratic inefficiencies, referred to as "sludge," in government processes. The article outlines the development of a "sludge audit" framework and provides examples of its application in practice, but it does not detail a specific</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>Unsure</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>The sample size is not given.</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>The description does not provide specific information on whether the study showed statistically significant results. It mentions improvements such as a 32% reduction in follow-up enquiries and a 73% reduction in process time, but it does not specify if these results were statistically significant.</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>Public administration; Environment / energy; Housing / homelessness</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3752,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>This description outlines a practical approach to embedding behavioural insights within an organization, specifically within the NSW government and Revenue NSW. It highlights the collaboration between the Behavioural Insights Unit and Revenue NSW to improve services and outcomes through behavioural insights. The study is interesting because it demonstrates real-world applications of behavioural science, such as redesigning communication to increase compliance and payment rates. It also showcases the</t>
+          <t>This description outlines a practical approach to embedding behavioural insights within an organization, specifically within Revenue NSW. It highlights the collaboration between the Behavioural Insights Unit and Revenue NSW to build behavioural insights skills through training and the establishment of a network of Behavioural Insights Champions. The study is interesting because it demonstrates a real-world application of behavioural insights to improve customer outcomes and organizational processes. It also</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -3130,7 +3772,27 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>No, this is not a write-up of an experimental study. It is a descriptive article about how the NSW Behavioural Insights Unit collaborates with Revenue NSW to build behavioural insights skills within the organization. It discusses the strategies and outcomes of embedding behavioural insights into everyday work, rather than detailing a specific experimental study.</t>
+          <t>No, this is not a write-up of an experimental study. It is a descriptive article about how the Behavioural Insights Unit collaborates with Revenue NSW to build behavioural insights skills within the organization. It discusses the strategies and outcomes of embedding behavioural insights into everyday work, rather than detailing a specific experimental study.</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>Unsure</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>The sample size is not given.</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>The study showed statistically significant results, as indicated by the 3.1 percentage point increase in on-time payment of fines after redesigning payment notices.</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>Public administration</t>
         </is>
       </c>
     </row>
@@ -3176,12 +3838,14 @@
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
         <is>
-          <t xml:space="preserve">The study showed statistically significant results for the animation ad in increasing the likelihood of young people wearing masks on public transport. The animation led to a 10% increase in the proportion of respondents who would definitely or probably wear a mask on public transport compared to the vox pop, with a p-value of 0.007. The increase in mask-wearing likelihood in shops was </t>
+          <t>Yes, the study showed statistically significant results for the animation ad. The animation led to a 10% increase in the proportion of respondents who would definitely or probably wear a mask on public transport compared to the vox pop, and this result was highly statistically significant (p=0.007). There were no confidence intervals or point estimates provided in the text. The increase in mask</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>This description can be classified as a research study or report on public health communication strategies. It focuses on encouraging young people to wear face masks through behaviorally informed messaging. The study uses an A/B test to compare the effectiveness of two different Facebook ads targeted at young people, analyzing their impact on mask-wearing intentions. The findings suggest that connecting mask-wearing with a positive social</t>
+          <t>This study appears to be high-quality and interesting for several reasons:
+1. **Behavioral Insights**: The study uses behavioral science principles to design and test interventions, which is a sophisticated approach to understanding and influencing human behavior.
+2. **Targeted Messaging**: It focuses on a specific demographic (young people) who may be resistant to mask-wearing, making the findings</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -3202,6 +3866,26 @@
       <c r="K34" t="inlineStr">
         <is>
           <t>Yes, this is a write-up of an experimental study.</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>A/B test</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>150,000</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>Yes, the study showed statistically significant results. The animation led to a 10% increase in the proportion of respondents who would definitely or probably wear a mask on public transport compared to the vox pop, with a p-value of 0.007.</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>Health; Public administration</t>
         </is>
       </c>
     </row>
@@ -3243,14 +3927,12 @@
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr">
         <is>
-          <t>The study did not show statistically significant results. The results indicated that those who received the public benefits message were 2.3 percentage points more likely to submit an application and 1.8 percentage points more likely to redeem their free tree, but these results were not statistically significant. The text does not provide point estimates with standard errors or confidence intervals.</t>
+          <t>The study did not show statistically significant results. The results indicated that those who received the public benefits message were 2.3 percentage points more likely to submit an application and 1.8 percentage points more likely to redeem their free tree, but these results were not statistically significant. There are no point estimates or confidence intervals provided in the text.</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>This study appears to be high-quality and interesting for several reasons:
-1. **Behavioral Insights Application**: The study applies behavioral insights to address a real-world problem, which is a modern and effective approach to policy-making and program implementation.
-2. **Data-Driven Approach**: The study involved interviews, data analysis, and user testing to identify barriers to the program's</t>
+          <t>This description can be classified as a case study or report on a behavioral intervention aimed at increasing the uptake of a government initiative. It details the methods used to encourage citizens to participate in the Free Tree Initiative, the challenges faced, the strategies implemented, and the results of the intervention. The study is interesting because it applies behavioral insights to address real-world challenges, such as low awareness</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -3271,6 +3953,26 @@
       <c r="K35" t="inlineStr">
         <is>
           <t>Yes, this is a write-up of an experimental study.</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>A regular RCT</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>The sample size is not given.</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>The study did not show statistically significant results. The results indicated that those who received the public benefits message were 2.3 percentage points more likely to submit an application and 1.8 percentage points more likely to redeem their free tree, but these differences were not statistically significant.</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>Environment / energy; Public administration</t>
         </is>
       </c>
     </row>
@@ -3342,12 +4044,13 @@
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr">
         <is>
-          <t>The study showed statistically significant results for the SMS message trial. The rule-of-thumb message increased the intention to get re-tested by 11% over the business-as-usual message. However, the text does not provide specific point estimates or confidence intervals for this result.</t>
+          <t>The study showed statistically significant results for the SMS message trial. The rule-of-thumb message resulted in an 11% increase over the business-as-usual message in the proportion of people who were extremely likely to get re-tested. No point estimates or confidence intervals were provided in the text.</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>This study is particularly high-quality and interesting because it employs a data-driven approach to influence public behavior during the COVID-19 pandemic. The use of A/B testing and behavioral insights to tailor communication strategies demonstrates a scientific method to enhance public health campaigns. The study's focus on social norms, clear messaging, and social responsibility effectively engages the community and encourages compliance with health guidelines. Additionally</t>
+          <t>This study is particularly high-quality and interesting because it demonstrates the application of behavioural insights to real-world public health challenges, specifically in the context of the COVID-19 pandemic. The study highlights several key aspects that contribute to its quality and interest:
+1. **Collaborative Approach**: The study involves collaboration between the NSW Behavioural Insights Unit and various government agencies, showcasing a multidisciplinary</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -3367,7 +4070,27 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Yes, this is a write-up of an experimental study. The description outlines various interventions and trials conducted to improve COVID-19 related behaviors, such as social distancing, testing, and public transport usage. It includes details on the methods used, such as A/B testing and SMS message trials, and reports on the outcomes of these interventions.</t>
+          <t>Yes, this is a write-up of an experimental study. The description details various interventions and trials conducted to improve COVID-19 related behaviors, such as social distancing, testing, and public transport usage. It includes specific methods like A/B testing and SMS message trials, and reports on the outcomes of these experiments.</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>A/B testing</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>The sample size is not given.</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>The study showed statistically significant results. The rule-of-thumb SMS message increased the intention to get re-tested by 11% over the business-as-usual message.</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>Health; Public administration; Transport; Business</t>
         </is>
       </c>
     </row>
@@ -3401,12 +4124,12 @@
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr">
         <is>
-          <t>The description does not provide any specific results, point estimates, or confidence intervals. It is a guide on strategies to increase adherence to procedures in the public service using behavioral insights, rather than a study with statistical results.</t>
+          <t>The description does not provide any specific statistical results, point estimates, or confidence intervals. It is a guide on strategies to increase adherence to procedures in the public service using behavioral insights, but it does not mention any study results or statistical data.</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>This description outlines a guide by BIU on using behavioral insights to increase adherence to procedures in the public service. It provides strategies to align procedures with human behavior and improve compliance among public servants. The guide emphasizes making compliance convenient, explaining the necessity of procedures, and designing procedures to minimize mistakes. It also highlights the importance of testing interventions with the target audience. The study appears to</t>
+          <t>This description can be classified as a guide or report on improving adherence to procedures in the public service using behavioral insights. It outlines strategies to align procedures with human behavior and enhance compliance among public servants. The guide emphasizes making compliance convenient, explaining the necessity of procedures, and designing procedures to minimize mistakes. It also highlights the importance of testing interventions with the target audience. The study appears</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -3427,6 +4150,26 @@
       <c r="K37" t="inlineStr">
         <is>
           <t>No, this is not a write-up of an experimental study. It is a guide providing strategies and insights on how to increase adherence to procedures in the public service using behavioural insights.</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>I'm unsure.</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>The sample size is not given.</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>The description does not provide information on whether the study showed statistically significant results or what the specific results were. It focuses on strategies to increase adherence to procedures in the public service using behavioural insights.</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>Public administration</t>
         </is>
       </c>
     </row>
@@ -3466,14 +4209,14 @@
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr">
         <is>
-          <t>The description does not provide specific statistical significance results, point estimates, or confidence intervals for the studies mentioned. It highlights the outcomes of various trials and projects, such as reducing the gender gap in senior leadership applications, increasing engagement in flexible working, and reducing missed hospital appointments, but does not include detailed statistical data or confidence intervals.</t>
+          <t>The description does not provide specific statistical significance results, point estimates, or confidence intervals for the studies mentioned. It highlights key accomplishments and outcomes, such as a reduction in the gender gap for senior leadership roles, increased engagement in flexible working, and a reduction in missed hospital appointments, but does not include detailed statistical data or confidence intervals.</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>This study appears to be high-quality and interesting due to several factors:
-1. **Real-world Impact**: The report highlights tangible outcomes from various trials and interventions, such as reducing the gender gap in senior leadership roles, decreasing missed hospital appointments, and improving access to drought assistance. These demonstrate the practical application and effectiveness of behavioural insights in public policy.
-2. **Diverse</t>
+          <t>This study appears to be high-quality and interesting for several reasons:
+1. **Real-World Impact**: The report highlights practical applications of behavioral insights in public policy, demonstrating tangible outcomes such as reducing the gender gap in senior leadership roles, decreasing missed hospital appointments, and improving access to drought assistance.
+2. **Diverse Applications**: The study covers a wide range of</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -3483,7 +4226,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>The description does not provide specific information about the partners involved in the study.</t>
+          <t>The description mentions several partners involved in the study, including the Department of Primary Industries, Revenue NSW, and the NSW Data Analytics Centre. Additionally, it references collaboration with other BI teams nationally for cross-jurisdictional projects. However, it does not provide a comprehensive list of all partners involved.</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -3493,7 +4236,27 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>No, this is not a write-up of an experimental study. It is a report summarizing the activities, accomplishments, and future opportunities of the NSW Behavioural Insight Unit, highlighting various projects and initiatives they have undertaken.</t>
+          <t>This is not a write-up of an experimental study. It is a report summarizing the activities, accomplishments, and future directions of the NSW Behavioural Insight Unit (BIU) over the past two years. It highlights various projects and trials they have conducted, but it does not provide the detailed methodology, data analysis, or results typically found in an experimental study write-up.</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>Unsure</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>The sample size is not given.</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>The description does not provide specific information on whether the study results were statistically significant. It mentions outcomes such as a reduction in the gender gap for senior leadership roles, increased engagement in flexible working, and a reduction in missed hospital appointments, but it does not specify if these results were statistically significant.</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>Public administration; Health; Environment / energy; Employment; Welfare</t>
         </is>
       </c>
     </row>
@@ -3525,12 +4288,12 @@
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Yes, the study showed statistically significant results. The results indicated that more people opened the newsletter when it was sent in the morning (47% open rate) compared to the afternoon (42% open rate). However, the text does not provide specific point estimates or confidence intervals.</t>
+          <t>The study showed statistically significant results. The results indicated that more people opened the newsletter when it was sent in the morning (47% open rate) compared to the afternoon (42% open rate). However, no specific point estimates or confidence intervals are provided in the text.</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>This description can be classified as a study on behavioral insights and A/B testing to enhance interaction between government and citizens. It outlines strategies for increasing form and survey completion rates and provides an example of an A/B test conducted by the Department of Education. The study is interesting because it applies behavioral science principles to improve government communication and engagement with citizens. However, without more detailed information on</t>
+          <t>This description outlines a study that uses behavioural insights and A/B testing to enhance interaction between government and citizens, specifically through optimizing the completion of forms and surveys. The study is interesting because it applies a data-driven approach to improve engagement, using strategies like simplifying forms, sending timely prompts, and crafting attention-grabbing invitations. The use of A/B testing to determine the best time to</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -3540,7 +4303,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>The description does not provide specific information about the partners involved in the study.</t>
+          <t>I'm unsure who the partners in this study were based on the provided description.</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -3551,6 +4314,26 @@
       <c r="K39" t="inlineStr">
         <is>
           <t>Yes, this is a write-up of an experimental study.</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>A/B testing</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>Yes, the study showed statistically significant results. The results indicated that more people opened the newsletter when it was sent in the morning (47% open rate) compared to the afternoon (42% open rate).</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>Public administration; Education</t>
         </is>
       </c>
     </row>
@@ -3599,12 +4382,12 @@
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
         <is>
-          <t>The study did not show statistically significant results. There were no point estimates or confidence intervals provided in the text.</t>
+          <t>The study did not show statistically significant results. The text mentions that there was no statistically significant difference in open rates or click-throughs when comparing different email subject lines. No point estimates or confidence intervals are provided in the text.</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>This description can be classified as a policy and behavioral insights study focused on increasing the take-up of public benefits and services. It discusses strategies to improve participation in government programs using behavioral insights, provides a case study from SafeWork NSW, and emphasizes the importance of testing interventions in different contexts. The study is interesting as it highlights practical applications of behavioral insights to address a common challenge in</t>
+          <t>This description can be classified as a policy and behavioral insights study focused on increasing the take-up of public benefits and services. It explores strategies to improve participation in government programs by using behavioral insights, such as changing defaults, reducing hassle, personalizing invitations, and supporting follow-through. The study includes a case example from SafeWork NSW, which applied these strategies to improve engagement with their</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -3619,12 +4402,32 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>The description does not provide a specific name or title for the underlying study.</t>
+          <t>The description does not provide a specific name or title for the underlying study. It mentions a guide by BIU on using behavioral insights to increase program take-up and a case study by SafeWork NSW, but no specific study name is given.</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>This is not a write-up of an experimental study. It is a description of a guide on using behavioral insights to increase the take-up of programs and services, along with a case study from SafeWork NSW that applied these strategies. The document discusses strategies and provides resources but does not present a detailed experimental study with methodology, data analysis, and results.</t>
+          <t>This is not a write-up of an experimental study. It is a description of a guide on using behavioral insights to increase the take-up of programs and services, along with a case study example from SafeWork NSW. The document discusses strategies and provides resources but does not present a detailed experimental study with methodology, data analysis, and results.</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>Unsure</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>1,800 subscribers</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>The study did not show statistically significant results. The experiment with different email subject lines did not result in a significant difference in open rates or click-throughs.</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>Public administration; Welfare; Mental health; Business</t>
         </is>
       </c>
     </row>
@@ -3691,12 +4494,14 @@
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr">
         <is>
-          <t>The description provided does not include any specific statistical results, point estimates, or confidence intervals. It summarizes behavioral strategies for remote work but does not present detailed statistical findings or data analysis.</t>
+          <t>The description does not provide specific statistical results, point estimates, or confidence intervals. It summarizes behavioral strategies for remote work based on research but does not include detailed statistical findings or data analysis.</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>This description outlines a study that provides practical strategies for remote work, based on behavioral insights. The study is interesting because it offers evidence-based recommendations for improving team performance and well-being in a remote work setting. It draws on research from various sources, including studies on communication patterns, goal setting, creativity, deep work, and psychological detachment. The inclusion of specific strategies and references</t>
+          <t>The study appears to be high-quality and interesting for several reasons:
+1. **Evidence-Based Strategies**: The strategies presented are based on research and studies conducted by behavioral scientists, which adds credibility to the recommendations.
+2. **Practical Application**: The study provides actionable strategies that teams can implement to improve remote work efficiency, such as scheduling short, regular catchups and setting</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -3711,12 +4516,32 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Yes, the description provides references to underlying studies and research that support the behavioural strategies mentioned.</t>
+          <t>Yes, the description provides references to underlying studies and research.</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
           <t>No, this is not a write-up of an experimental study. It is a summary of strategies and insights based on existing research and literature to help teams work remotely more effectively.</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>The description does not provide enough information to determine the design of the experiment.</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>The sample size is not given.</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>The description does not provide specific information about whether the study showed statistically significant results or what those results were. It mainly summarizes strategies and insights for remote work based on behavioral research.</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>Employment; Mental health; Business</t>
         </is>
       </c>
     </row>
@@ -3784,8 +4609,8 @@
       <c r="G42" t="inlineStr">
         <is>
           <t>This study appears to be high-quality and interesting for several reasons:
-1. **Randomized Controlled Trial (RCT) Design**: The study uses a randomized-controlled trial design, which is considered the gold standard for evaluating the effectiveness of interventions. This design helps establish a causal relationship between the interventions and the outcomes.
-2. **Behavioral Insights Application**: The study applies behavioral</t>
+1. **Randomized Controlled Trial (RCT) Design**: The study uses a randomized-controlled trial design, which is considered the gold standard for evaluating the effectiveness of interventions. This design helps establish a causal relationship between the interventions and the outcomes observed.
+2. **Behavioral Insights Application**: The study applies</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -3800,12 +4625,32 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>The underlying study is described as a trial conducted by the Behavioural Insights Unit in partnership with the Public Service Commission and other clusters within the NSW Government. The study aimed to increase the proportion of women reapplying for senior roles by using behaviourally informed interventions. However, a specific name for the study is not provided in the description.</t>
+          <t>The description does not provide a specific name for the underlying study.</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
           <t>Yes, this is a write-up of an experimental study.</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>Regular RCT</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>1614</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>Yes, the study showed statistically significant results. The interventions significantly increased the likelihood of women reapplying for senior roles by 27% and reduced the gender gap in reapplication rates from 45% to 4%.</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>Public administration; Employment</t>
         </is>
       </c>
     </row>
@@ -3865,6 +4710,26 @@
       <c r="K43" t="inlineStr">
         <is>
           <t>Yes, this is a write-up of an experimental study.</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>Randomised controlled trial (RCT)</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>The sample size is not given.</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>Yes, the study showed statistically significant results. Managers who received the behaviourally-informed email were three times more likely to send an email to their team inviting a discussion about flexible work, with 6.1% of managers in the treatment group sending the email compared to 1.8% in the control group.</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>Public administration; Employment</t>
         </is>
       </c>
     </row>
@@ -3902,12 +4767,12 @@
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
-          <t>This description does not provide any specific study results, point estimates, or confidence intervals. It is an overview of a guide and workshops designed to help public servants test their behavioral insights ideas, rather than a report on a specific study with statistical results.</t>
+          <t>This description does not provide any specific study results, point estimates, or confidence intervals. It is an overview of a guide and workshops designed to help public servants test their behavioural insights ideas using methods like RCTs, A/B tests, and before-and-after studies. There is no mention of statistically significant results or specific outcomes from a study.</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>This description outlines a comprehensive initiative to build capability in applying and testing behavioural insights (BI) within the public sector. The initiative includes practical guides, workshops, and clinics to support public servants in testing their BI ideas using methods like Randomised Controlled Trials (RCTs), A/B testing, and before-and-after studies. The focus on providing resources and support for real-world application and</t>
+          <t>This description outlines a comprehensive initiative aimed at building capability in applying and testing behavioural insights within the public sector. The initiative includes practical guides, workshops, and clinics to support public servants in testing their behavioural insights (BI) ideas. The focus on providing resources such as a guide on testing methods (RCTs, A/B tests, and before-and-after studies) and offering hands-on</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -3927,7 +4792,27 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>No, this is not a write-up of an experimental study. It is a description of a program designed to build capability in applying and testing behavioural insights within the public sector. It outlines the resources, workshops, and support being offered to public servants to help them test their behavioural insights ideas.</t>
+          <t>No, this is not a write-up of an experimental study. It is a description of a program designed to build capability in applying and testing behavioural insights among public servants. It outlines the resources and support being offered, such as guides, workshops, and clinics, to help public servants test their behavioural insights ideas.</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>The description does not specify the design of the experiment.</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>The sample size is not given.</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>The description does not provide information on whether the study showed statistically significant results or what the results were. It focuses on the development and implementation of guides and workshops to help public servants test their behavioural insights ideas.</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>Public administration</t>
         </is>
       </c>
     </row>
@@ -3966,12 +4851,12 @@
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
-          <t>The description does not provide specific statistical results, point estimates, or confidence intervals. It outlines the opportunities identified to remove gender barriers in senior leadership roles but does not mention any statistically significant results or detailed quantitative findings from the study.</t>
+          <t>The description does not provide specific statistical results, point estimates, or confidence intervals. It outlines the opportunities identified to remove obstacles for women in senior leadership roles but does not mention any statistically significant results or detailed quantitative findings from the study.</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>This description can be classified as a research report or study on gender diversity and leadership. It outlines a study conducted to identify opportunities to remove barriers for women in senior leadership roles, based on data analysis and interviews. The study is part of a broader initiative to apply behavioral insights to enhance diversity in the public sector. The quality and interest of the study may be considered high due to</t>
+          <t>This description can be classified as a research report or study summary. It outlines the findings of a research project focused on identifying opportunities to remove gender barriers in senior leadership roles within the public sector in New South Wales (NSW). The study is based on a comprehensive analysis of job applications, survey responses, and interviews, and it provides actionable recommendations to promote gender diversity in leadership positions</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -3992,6 +4877,26 @@
       <c r="K45" t="inlineStr">
         <is>
           <t>No, this is not a write-up of an experimental study. It is a report on research findings and recommendations based on data analysis, surveys, and interviews.</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>Unsure</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>1.1 million job applications, 500 survey responses, and 65 interviews.</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>The description does not provide information on whether the study showed statistically significant results. It focuses on identifying opportunities to remove barriers for women in senior leadership roles and does not mention specific statistical outcomes.</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>Public administration; Employment</t>
         </is>
       </c>
     </row>
@@ -4068,9 +4973,9 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>This study appears to be high-quality and interesting for several reasons:
-1. **Use of Randomized Control Trial (RCT):** The study employs a rigorous RCT design, which is considered the gold standard for evaluating the effectiveness of interventions. This adds credibility to the findings.
-2. **Behavioral Insights Application:** The study applies behavioral insights to a new context, demonstrating innovation</t>
+          <t>The study appears to be high-quality and interesting for several reasons:
+1. **Use of Randomized Control Trial (RCT):** The study employs a randomized control trial, which is considered the gold standard in research for establishing causality. This adds robustness to the findings.
+2. **Behavioral Intervention:** The study applies behavioral insights to improve educational outcomes, which is a novel</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -4091,6 +4996,26 @@
       <c r="K46" t="inlineStr">
         <is>
           <t>Yes, this is a write-up of an experimental study.</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>Regular RCT</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>966</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>Yes, the study showed statistically significant results. The text messages sent to employers were effective in increasing the students’ class attendance by 3.1 percentage points.</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>Education; Employment; Public administration</t>
         </is>
       </c>
     </row>
@@ -4134,7 +5059,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>This description can be classified as a research study in the field of healthcare communication and behavioral science. It involves the use of randomized controlled trials to test the effectiveness of different text message reminders on reducing missed hospital appointments. The study is high-quality and interesting because it uses a data-driven approach to address a common issue in healthcare, employs rigorous experimental methods, and provides actionable insights that can</t>
+          <t>This description can be classified as a research study in the field of healthcare communication and behavioral science. It involves the use of randomized controlled trials to test the effectiveness of different text message reminders on reducing missed hospital appointments. The study is high-quality and interesting because it employs a rigorous experimental design (randomized controlled trials) to evaluate the impact of message content on patient behavior, providing evidence</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -4155,6 +5080,26 @@
       <c r="K47" t="inlineStr">
         <is>
           <t>Yes, this is a write-up of an experimental study.</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>Randomised Controlled Trial (RCT)</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>7,500</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>The study showed statistically significant results. The first trial resulted in a 19 percent reduction in the number of people missing their appointments, saving St Vincent’s Hospital over $68,000. The most effective message was Version 5, which emphasized the financial impact of missed appointments and how the money could be used to treat other patients.</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>Health; Public administration</t>
         </is>
       </c>
     </row>
@@ -4194,9 +5139,9 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t xml:space="preserve">This study is particularly high-quality and interesting due to several factors:
-1. **Randomized Controlled Trial (RCT):** The study uses a randomized controlled trial design, which is considered the gold standard for evaluating the effectiveness of interventions. This design helps to minimize bias and establish a causal relationship between the intervention (SMS reminders) and the outcome (reduction in rent arrears).
-</t>
+          <t>This study is particularly high-quality and interesting due to several factors:
+1. **Randomized Controlled Trial (RCT):** The use of a randomized controlled trial design is a gold standard in research for establishing causality. By randomly assigning participants to different groups, the study minimizes biases and ensures that the results are due to the intervention itself rather than other factors.
+2. **Large</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -4217,6 +5162,26 @@
       <c r="K48" t="inlineStr">
         <is>
           <t>Yes, this is a write-up of an experimental study.</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>Randomised controlled trial (RCT)</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>10,000</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>The study showed statistically significant results. Over three quarters of people who received the text messages paid their overdue rent or entered into a payment plan, compared to 68.5% who only received the letter. The most effective text message was version 4. Additionally, certain groups, such as people aged 55-64 and households with people with disabilities, were more responsive to</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>Housing / homelessness; Public administration; Welfare; Disability; Aging</t>
         </is>
       </c>
     </row>
@@ -4256,7 +5221,7 @@
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr">
         <is>
-          <t>The study showed that people returned to work 27 percent faster in the first 90 days when they received the new approach compared with people in group two. However, the description does not provide any point estimates, standard errors, or confidence intervals, so it is unclear if the results are statistically significant.</t>
+          <t>The study showed that people returned to work 27 percent faster in the first 90 days when they received the new approach compared with people in the normal services group. However, the description does not provide any point estimates, standard errors, or confidence intervals, so it is unclear if the results are statistically significant.</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -4276,12 +5241,32 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>No, a specific name or description of the underlying study is not provided in the description.</t>
+          <t>Yes, the description of the underlying study is provided. It is a research study conducted in partnership between NSW Treasury Managed Fund, insurer Allianz, and the Department of Education to test a new approach to help injured education workers return to work.</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
           <t>Yes, this is a write-up of an experimental study.</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>Regular RCT</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>1700</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>The study showed that people returned to work 27 percent faster in the first 90 days when they received the new approach compared to the normal services. However, the description does not specify whether these results were statistically significant.</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>Education; Health; Employment</t>
         </is>
       </c>
     </row>
@@ -4325,7 +5310,9 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>This description outlines a guide that applies behavioral insights to address the effects of scarcity, particularly in the context of public services. The study is interesting because it highlights the impact of a scarcity mindset on decision-making and cognitive performance, and it offers practical strategies to mitigate these effects. The involvement of researchers from the Australian National University and the focus on policy implications for government services add to its</t>
+          <t>The study appears to be high-quality and interesting due to several factors:
+1. **Relevance and Practical Application**: The study addresses a common psychological phenomenon, the scarcity mindset, which affects decision-making and cognitive performance. It provides practical strategies for policymakers and service providers to mitigate these effects, making it highly relevant for real-world applications.
+2. **Expert Involvement**</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -4346,6 +5333,26 @@
       <c r="K50" t="inlineStr">
         <is>
           <t>No, this is not a write-up of an experimental study. It is a guide that discusses the concept of scarcity mindset and provides practical strategies for policy makers to reduce its effects using behavioural insights.</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>I'm unsure.</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>The sample size is not given.</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>The description does not provide specific information about whether the study showed statistically significant results. It mentions a study that found a scarcity mindset in shoppers completing cognitive tasks resulted in the equivalent of a 13-point dip in IQ, but it does not specify if these results were statistically significant.</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>Public administration; Mental health; Welfare</t>
         </is>
       </c>
     </row>
@@ -4386,12 +5393,12 @@
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr">
         <is>
-          <t>The description does not provide specific statistical results, point estimates, or confidence intervals. It discusses strategies to increase job applications in regional NSW but does not mention any quantitative outcomes or statistical significance from the study.</t>
+          <t>The description does not provide specific statistical results, point estimates, or confidence intervals. It discusses strategies and insights for increasing job applications in regional NSW but does not mention any quantitative outcomes or statistical significance from the study.</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>This description outlines a study that uses behavioral insights to increase job applications in regional NSW, particularly focusing on reducing friction in the application process and using social influencers to encourage applications. The study appears to be high-quality and interesting due to its practical application of behavioral insights to address a real-world issue, its focus on multiple sectors beyond teaching, and its strategic use of novel communication methods and</t>
+          <t>This description can be classified as a "Blog Post" or "Article" focused on strategies to increase job applications in regional New South Wales (NSW) using behavioral insights. It discusses methods to make the application process easier and more attractive, the use of social influencers, and the importance of timely reminders. The publication date is 26 September 2018.</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -4401,17 +5408,37 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>I'm unsure who the partners in this study were based on the provided description.</t>
+          <t>The description does not provide information about the partners involved in the study.</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>No, a specific name or description of the underlying study is not provided.</t>
+          <t>No, a name or description of the underlying study is not provided.</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
           <t>No, this is not a write-up of an experimental study. It is a descriptive article discussing strategies to increase job applications in regional NSW using behavioral insights.</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>Unsure</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>The sample size is not given.</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>The description does not provide specific information about statistically significant results or detailed outcomes of the study. It mainly discusses strategies to increase job applications in regional NSW using behavioral insights.</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>Education; Employment; Public administration</t>
         </is>
       </c>
     </row>
@@ -4464,16 +5491,16 @@
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr">
         <is>
-          <t>The study showed statistically significant results for the interventions. Specifically:
-- Intervention 1: The intervention had a significant effect, resulting in three times more applicants for R&amp;R placements (12.6% versus 4.2% of all applications).
-- Intervention 2: The results were promising, with a 9.8% R&amp;R application rate in the treatment group,</t>
+          <t>The study showed statistically significant results for two of the interventions. 
+1. Intervention 1: Timely and personalised communications resulted in three times more applicants for R&amp;R placements, with 12.6% of applications from the treatment group compared to 4.2% from the control group.
+2. Intervention 2: Simplifying the research process and using an influential messenger</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
           <t>This study appears to be high-quality and interesting for several reasons:
-1. **Use of Behavioral Insights**: The study applies behavioral science principles to address a real-world problem, which is attracting trainee teachers to rural and remote areas. This approach goes beyond traditional financial incentives and explores psychological and social factors that influence decision-making.
-2. **Collaborative Approach**: The study involved</t>
+1. **Use of Behavioral Insights**: The study applies behavioral science principles to address a real-world problem, which is attracting trainee teachers to rural and remote areas. This approach goes beyond traditional financial incentives and explores psychological and social factors influencing decision-making.
+2. **Randomized Controlled Trials (RCTs)**:</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -4488,12 +5515,32 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>The description does not provide a specific name for the underlying study. It describes the application of behavioural insights to encourage trainee teachers to take placements in rural and remote areas of New South Wales, but it does not mention a specific study name.</t>
+          <t>Yes, the description of the underlying study is provided. The study involves applying behavioural insights to encourage trainee teachers to apply for professional experience placements in rural and remote areas of New South Wales (NSW). The study includes interventions such as timely and personalized communications, simplifying the research process, using influential messengers, and offering peer-placements.</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Yes, this is a write-up of an experimental study.</t>
+          <t>Yes, this is a write-up of an experimental study. The description details the use of randomised controlled trials (RCTs) to test three different interventions aimed at increasing the number of trainee teachers applying for placements in rural and remote areas. The study involves collecting data, implementing interventions, and analyzing the results to determine their effectiveness.</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>Regular RCT</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>230</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>Yes, the study showed statistically significant results. The interventions led to an increase in applications for rural and remote placements among trainee teachers. Specifically, the first intervention resulted in three times more applicants for R&amp;R placements (12.6% versus 4.2% of all applications). The second intervention also showed promising results with a 9.8% R&amp;R application rate in</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>Education; Public administration; Employment</t>
         </is>
       </c>
     </row>
@@ -4558,7 +5605,8 @@
       <c r="G53" t="inlineStr">
         <is>
           <t>This study appears to be high-quality and interesting for several reasons:
-1. **Use of Randomized Controlled Trial (RCT):** The study employs a randomized controlled trial, which is considered the gold standard in research for establishing causality. By randomly assigning participants to either the intervention or control group, the study minimizes biases and allows for a clearer assessment of the SMS reminder's impact</t>
+1. **Use of Randomized Controlled Trial (RCT):** The study employs a randomized controlled trial, which is considered the gold standard in research for establishing causal relationships. By randomly assigning participants to either the intervention or control group, the study minimizes biases and increases the reliability of the results.
+2. **Large</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -4573,12 +5621,32 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Yes, the underlying study is described as a randomized controlled trial (RCT) to test the efficacy of a text message intervention to improve court attendance for recipients of Apprehended Domestic Violence Orders (ADVOs) in New South Wales (NSW).</t>
+          <t>Yes, the underlying study is described as a randomized controlled trial (RCT) to test the efficacy of a text message reminder to improve court attendance for recipients of Apprehended Domestic Violence Orders (ADVOs).</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Yes, this is a write-up of an experimental study.</t>
+          <t>Yes, this is a write-up of an experimental study. It describes a randomized controlled trial (RCT) conducted to test the efficacy of SMS reminders in improving court attendance for recipients of Apprehended Domestic Violence Orders (ADVOs). The study involved a control group (BAU) and an intervention group, with results showing a significant improvement in court attendance for those who received</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>Regular RCT</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>4,388</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>Yes, the study showed statistically significant results in improving court attendance. The intervention group that received SMS reminders had a significantly lower court non-attendance rate of 13.5% compared to the BAU group's rate of 17.6%, which is a relative decrease of 23% (p &lt; 0.001). Additionally, there was a significant reduction in the average</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>Justice</t>
         </is>
       </c>
     </row>
@@ -4638,8 +5706,8 @@
       <c r="G54" t="inlineStr">
         <is>
           <t>This study appears to be high-quality and interesting for several reasons:
-1. **Data-Driven Approach**: The study is based on a comprehensive analysis of over 1.1 million applications over five years, along with interviews and surveys. This extensive data collection provides a robust foundation for the study's insights and conclusions.
-2. **Behavioral Interventions**: The study</t>
+1. **Data-Driven Approach**: The study is based on a comprehensive analysis of over 1.1 million applications, 65 interviews, and survey responses from over 400 applicants. This extensive data collection provides a robust foundation for the study's findings.
+2. **Behavioral Interventions**:</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -4649,7 +5717,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>I'm sorry, but the description does not provide information about the partners involved in the study.</t>
+          <t>I'm sorry, the description does not provide information about the partners involved in the study.</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -4660,6 +5728,26 @@
       <c r="K54" t="inlineStr">
         <is>
           <t>Yes, this is a write-up of an experimental study.</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>Regular RCT</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>1,614</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>Yes, the study showed statistically significant results. The behavioural interventions significantly increased the likelihood of women reapplying for senior roles, reducing the gender gap in reapplication rates. Specifically, the interventions increased the likelihood of women reapplying by 27% and reduced the gender gap from 45% to just 4% in the phone and email condition.</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>Public administration; Employment</t>
         </is>
       </c>
     </row>
@@ -4725,9 +5813,9 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>This study appears to be high-quality and interesting for several reasons:
-1. **Large Sample Size**: The field trial involved over 20 million participants, which provides a robust data set for drawing conclusions.
-2. **Targeted Research**: The study specifically focuses on women returners, a group that faces unique challenges in re-entering the workforce. This targeted approach allows</t>
+          <t>This study is particularly high-quality and interesting due to several factors:
+1. **Large Sample Size**: The field trial involved over 20 million participants, providing robust data and increasing the reliability of the findings.
+2. **Targeted Research**: The study specifically focuses on women returners, a group that faces unique challenges in re-entering the workforce. This targeted approach</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -4742,12 +5830,32 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Yes, the description of the underlying study is provided. It is a research conducted by BIT in partnership with the National Careers Institute (NCI) in the Australian Department of Employment and Workplace Relations, focusing on understanding the careers information and support needs of women in their mid- to late-careers, specifically regarding flexible work options in job advertisements.</t>
+          <t>No, a specific name or description of the underlying study is not provided.</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
           <t>Yes, this is a write-up of an experimental study.</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>Something else</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>460</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>The study showed statistically significant results. Women returners were three times more likely to choose job ads with specific, culture-related framings over those with a basic flexible work statement. Additionally, the 'request' statement was as off-putting as having no flexible work statement at all.</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>Parenting; Employment; Business</t>
         </is>
       </c>
     </row>
@@ -4808,7 +5916,9 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>This description can be classified as a research study or report. It details a study conducted to determine the most effective CV format for showcasing skills and experience in the gig economy, particularly for those with insecure work histories. The study involved a trial with recruiters and tested different CV formats, ultimately finding that a Hybrid CV format was preferred. The study is interesting because it addresses a relevant issue</t>
+          <t>The study is high-quality and interesting for several reasons:
+1. **Relevance to Current Workforce Trends**: The study addresses a significant issue in the modern workforce, particularly the gig economy and insecure work, which affects a large portion of the population. This makes the findings highly relevant and applicable to current employment challenges.
+2. **Collaboration with Government**: The partnership with</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -4829,6 +5939,26 @@
       <c r="K56" t="inlineStr">
         <is>
           <t>Yes, this is a write-up of an experimental study.</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>Regular RCT</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>1,000 recruiters</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>The study showed that nearly half of the recruiters selected candidates with the Hybrid CV format, indicating a preference for this format. However, the description does not explicitly mention whether the results were statistically significant.</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>Employment; Business</t>
         </is>
       </c>
     </row>
@@ -4877,12 +6007,12 @@
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr">
         <is>
-          <t>The description does not provide specific statistical results, point estimates, or confidence intervals. It mentions that the Digital Compass program has increased self-reported prosocial behaviors, but no detailed statistical data or significance is provided.</t>
+          <t>The description does not provide specific statistical results, point estimates, or confidence intervals. It mentions that the Digital Compass program has increased self-reported prosocial behaviors, but no detailed statistical data or significance levels are provided.</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>This description outlines a thoughtful approach to designing internet policy with a focus on the safety and well-being of children and young people. It highlights the importance of involving young people in the policy-making process, using co-design methods, and leveraging social media as part of the solution. The study is interesting because it emphasizes the need for a nuanced understanding of how young people interact online and suggests</t>
+          <t>This description outlines a thoughtful approach to designing internet policy with a focus on the safety and well-being of children and young people. It highlights the importance of involving young people in the policy design process, understanding their perspectives, and creating solutions that are informed by their experiences. The study is interesting because it emphasizes co-design with young people, the role of tech companies in understanding user voices</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -4897,12 +6027,32 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>No, a specific name or description of the underlying study is not provided in the description.</t>
+          <t>No, a specific name or description of the underlying study is not provided.</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>No, this is not a write-up of an experimental study. It is an opinion piece or commentary discussing the importance of involving children and young people in designing internet policies to ensure their safety and well-being online. It includes observations, reflections, and suggestions for policy-making rather than presenting experimental research findings.</t>
+          <t>No, this is not a write-up of an experimental study. It is an opinion piece or commentary discussing the importance of involving children and young people in designing internet policies to ensure their safety and well-being online. It includes observations, suggestions, and examples of initiatives but does not present experimental research or data.</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>I am unsure.</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>The sample size is not given.</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>The description does not provide specific information about statistically significant results from a study. It mentions that the Digital Compass program increased self-reported prosocial behaviors, but it does not specify whether these results were statistically significant.</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>Parenting; Education; Mental health; Public administration</t>
         </is>
       </c>
     </row>
@@ -4952,7 +6102,7 @@
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr">
         <is>
-          <t>The study mentioned a result where the trial notice resulted in a 3.1 percentage point increase in fine payments compared to the control notice. However, there are no specific point estimates, standard errors, or confidence intervals provided in the text.</t>
+          <t>The study mentioned a 3.1 percentage point increase in fine payments as a result of the trial notice compared to the control notice. However, there are no specific point estimates, standard errors, or confidence intervals provided in the text.</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -4979,7 +6129,27 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>No, this is not a write-up of an experimental study. It is a descriptive article discussing the concept and applications of simulated eye-tracking as a research technique in behavioral science. It provides examples of how simulated eye-tracking has been used in practice and discusses its advantages and limitations, but it does not detail a specific experimental study with methodology, results, and analysis.</t>
+          <t>No, this is not a write-up of an experimental study. It is a descriptive article discussing the concept and applications of simulated eye-tracking as a research technique in behavioral science. It provides examples of how simulated eye-tracking has been used in practice and discusses its advantages and limitations, but it does not detail a specific experimental study with methods, results, and conclusions.</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>Unsure</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>The sample size is not given.</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>The study mentioned a 3.1 percentage point increase in fine payments as a result of using a trial notice with a "PAY NOW" stamp, compared to a control notice. However, it does not specify whether this result was statistically significant.</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>Education; Public administration; Business; Environment / energy; Employment</t>
         </is>
       </c>
     </row>
@@ -5048,7 +6218,27 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>No, this is not a write-up of an experimental study. It is a description of a new applied research organization, System 2, and its mission, goals, and initial projects focused on addressing social disadvantage in Australia.</t>
+          <t>No, this is not a write-up of an experimental study. It is a description of a new applied research Not for Profit organization, System 2, and its mission, team, and initial program of work focused on reimagining the employment system for disadvantaged young people in Australia.</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>I am unsure.</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>The sample size is not given.</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>The description provided does not mention any specific study or statistical results. It outlines the mission and activities of System 2, a new applied research Not for Profit organization, but does not provide details on any completed studies or their outcomes.</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>Education; Mental health; Welfare; Employment</t>
         </is>
       </c>
     </row>
@@ -5100,13 +6290,13 @@
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr">
         <is>
-          <t>The description does not provide any specific statistical results, point estimates, or confidence intervals. It focuses on the design, implementation, and qualitative feedback of the Digital Compass program rather than quantitative outcomes.</t>
+          <t>The description does not provide any specific statistical results, point estimates, or confidence intervals. It focuses on the qualitative aspects and feedback from participants and educators regarding the Digital Compass program.</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>The study described in the abstract appears to be high-quality and interesting for several reasons:
-1. **Co-Design with Young People**: The program is co-designed with young people, ensuring that it is relevant and engaging for the target audience. This participatory approach likely increases the effectiveness and acceptance of the program among its users.
+          <t>The study on the Digital Compass program appears to be high-quality and interesting for several reasons:
+1. **Co-Design with Young People**: The program is co-designed with young people, ensuring that it is relevant and engaging for the target audience. This participatory approach likely increases the effectiveness and acceptance of the program among students.
 2. **Focus on Core Values and Beh</t>
         </is>
       </c>
@@ -5122,12 +6312,32 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Yes, the underlying study or program is named "Digital Compass."</t>
+          <t>Yes, the underlying study is referred to as "Digital Compass."</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
           <t>No, this is not a write-up of an experimental study. It is a descriptive article about the Digital Compass program, its design, implementation, and the principles behind it. It discusses the program's approach to improving ethical behaviors online among young people, but it does not present experimental data or results from a controlled study.</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>I am unsure.</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>The sample size is not given.</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>The description does not provide specific information about statistically significant results or detailed outcomes of the study. It focuses on the design, approach, and perceived benefits of the Digital Compass program rather than quantitative results.</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>Education; Mental health</t>
         </is>
       </c>
     </row>
@@ -5195,7 +6405,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>This description can be classified as a commentary or opinion piece. It provides reflections and insights from David Halpern, CEO of the Behavioural Insights Team, on the current state and future potential of the Australian government's approach to learning, innovation, and public service reform. The piece discusses the challenges and opportunities faced by the new Australian government, the importance of learning from past experiences,</t>
+          <t>The description provided is a reflective piece on the current state and future potential of the Australian government under Prime Minister Anthony Albanese. It highlights the government's focus on learning, innovation, and reform, particularly in public service and administration. The article discusses the importance of setting priorities, learning from past experiences, and utilizing data and evaluation to make informed decisions. It also emphasizes the role of</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -5205,17 +6415,37 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>I'm unsure who the specific partners in this study were.</t>
+          <t>I'm unsure who the specific partners in this study were based on the provided description.</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>The description does not provide a specific name or description of an underlying study. It is more of a reflection and analysis of the current state and future potential of the Australian government's approach to learning, innovation, and public service reform.</t>
+          <t>The description does not provide a specific name or title of an underlying study. It is more of a reflection and analysis of the current state and efforts of the Australian government in terms of public service reform and innovation.</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
           <t>No, this is not a write-up of an experimental study. It is a reflective article discussing the current state and future potential of government reform and innovation in Australia, based on observations and meetings with leaders and officials.</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>The description does not specify a particular experimental design, so I am unsure.</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>The sample size is not given.</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>The description provided is not a study with statistical results. It is a reflective piece discussing the current state and future potential of the Australian government's approach to learning, innovation, and public service reform. There are no statistical results or significance mentioned.</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>Public administration</t>
         </is>
       </c>
     </row>
@@ -5262,7 +6492,9 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>This description can be classified as a research study or intervention study. It details a study conducted to evaluate the effectiveness of social norms messaging in discouraging parents from supplying alcohol to their underage children. The study involved an online randomized trial with Australian parents and tested two different messages. The results indicated that both messages were effective, with the Parent Norms message being particularly impactful. The</t>
+          <t>This study appears to be high-quality and interesting for several reasons:
+1. **Evidence-Based Approach**: The study uses evidence-based messages, which are grounded in research and statistics, to influence parental behavior regarding the supply of alcohol to underage teens.
+2. **Social Norms Messaging**: The use of social norms messaging is a well-established psychological approach to influence behavior by</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -5283,6 +6515,26 @@
       <c r="K62" t="inlineStr">
         <is>
           <t>Yes, this is a write-up of an experimental study.</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>Regular RCT</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>1091</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>Yes, the study showed statistically significant results. Parents who saw the Parent Norms message were more likely to say that they would not supply alcohol to their underage children compared to parents who saw the Teen Norms message.</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>Parenting; Health; Drugs and alcohol</t>
         </is>
       </c>
     </row>
@@ -5341,8 +6593,8 @@
       <c r="G63" t="inlineStr">
         <is>
           <t>The study appears to be high-quality and interesting for several reasons:
-1. **Relevance and Timeliness**: The study addresses a pressing issue in the rapidly growing in-home care sector, which is crucial given the aging population in Australia and the increasing demand for in-home care services.
-2. **Collaboration with Government**: The partnership with the NSW Government’s Centre for</t>
+1. **Relevance and Timeliness**: The study addresses a pressing issue in the rapidly growing in-home care sector, which is crucial given the aging population in Australia. The focus on workplace safety for in-home care workers is particularly relevant during National Safe Work Month.
+2. **Collaboration with Government**</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -5363,6 +6615,26 @@
       <c r="K63" t="inlineStr">
         <is>
           <t>No, this is not a write-up of an experimental study. It is a descriptive article discussing the workplace safety issues faced by in-home disability and aged care workers in Australia, and how a Behavioural Insights approach can be applied to develop a framework for improving their work health and safety.</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>I am unsure.</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>The sample size is not given.</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>The description does not provide information on whether the study showed statistically significant results or what the specific results were. It mainly outlines the objectives and approach of the project regarding workplace safety for in-home care workers.</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>Health; Disability; Employment; Aging</t>
         </is>
       </c>
     </row>
@@ -5412,14 +6684,12 @@
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr">
         <is>
-          <t>The description does not provide any specific point estimates, standard errors, or confidence intervals. It discusses qualitative themes and insights from institutional investors, such as the lag between investor attitudes and actions, the issue of greenwashing, and the need for bold action. However, it does not mention any statistically significant results or quantitative data with point estimates or confidence intervals.</t>
+          <t>The study does not provide specific statistical results, point estimates, or confidence intervals in the text. It primarily discusses qualitative themes and insights from institutional investors regarding the gap between climate commitments and actions.</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>The description provided is a high-quality and interesting study for several reasons:
-1. **Timeliness and Relevance**: The study addresses the urgent and contemporary issue of climate change and its impact on investment decisions, which is highly relevant given the increasing frequency of climate-related disasters and the global push for sustainable practices.
-2. **Comprehensive Analysis**: It combines both quantitative and</t>
+          <t>This description can be classified as a research study or report on the gap between climate commitments and actions among institutional investors. It provides insights into the current state of investment priorities, highlighting the disconnect between stated climate ambitions and actual investment behaviors. The study is interesting as it combines quantitative data from surveys with qualitative insights from open-ended questions, revealing themes such as the lag between attitudes and actions</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -5429,17 +6699,37 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>The partners in this study were MarketMeter and Altiorem.</t>
+          <t>The partners in this study were MarketMeter and the sustainable finance library Altiorem.</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>No, a specific name or description of the underlying study is not provided in the description.</t>
+          <t>No, a specific name or description of the underlying study is not provided.</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Yes, this is a write-up of an experimental study. The description outlines a survey conducted with institutional investors to assess their prioritization of climate risk in investment decisions. The study involved collecting quantitative and qualitative data from a sample of investors and analyzing the results to identify themes and insights regarding the gap between climate commitments and actions.</t>
+          <t>Yes, this is a write-up of an experimental study. The description details a survey conducted with institutional investors to assess their prioritization of climate risk in investment decisions. The study involved collecting both quantitative and qualitative data to explore the gap between climate commitments and actual investment actions.</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>Something else</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>The study does not mention statistically significant results. It provides qualitative insights and themes from the survey of institutional investors, highlighting a disconnect between climate commitments and actions, the issue of greenwashing, and the need for bold action.</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>Environment / energy; Business</t>
         </is>
       </c>
     </row>
@@ -5480,14 +6770,14 @@
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr">
         <is>
-          <t>The study showed statistically significant results. The appeal to morals message led to a small but statistically significant reduction in intentions to panic buy. Additionally, there was a large and significant reduction in simulated panic buying behavior from both the appeal to morals and norms + reciprocity message. However, specific point estimates and confidence intervals are not provided in the text.</t>
+          <t>The study showed statistically significant results. The appeal to morals message led to a small but statistically significant reduction in intentions to panic buy. Additionally, there was a large and significant reduction in simulated panic buying behavior from both the appeal to morals and norms + reciprocity messages. However, specific point estimates and confidence intervals are not provided in the text.</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>The study is particularly high-quality and interesting for several reasons:
-1. **Behavioral Insights Approach**: The study uses behavioral insights to address panic buying, which is a novel approach. It focuses on understanding the psychological and social drivers behind panic buying and tests interventions that could mitigate these behaviors.
-2. **Randomized Control Trial (RCT)**: The use of an online randomized</t>
+          <t>The description provided is a research study that explores the use of behavioral insights to combat panic buying, particularly in the context of public health restrictions and crises like the COVID-19 pandemic. The study is high-quality and interesting for several reasons:
+1. **Behavioral Focus**: It addresses panic buying as a behavioral problem, identifying specific drivers and testing interventions to mitigate it.
+2</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -5508,6 +6798,26 @@
       <c r="K65" t="inlineStr">
         <is>
           <t>Yes, this is a write-up of an experimental study.</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>Regular RCT</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>The sample size is not given.</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>Yes, the study showed statistically significant results. The appeal to morals message led to a small but statistically significant reduction in intentions to panic buy. Additionally, both the appeal to morals and norms + reciprocity messages resulted in a large and significant reduction in simulated panic buying behavior.</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>Public administration; Business; Health</t>
         </is>
       </c>
     </row>
@@ -5549,7 +6859,7 @@
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr">
         <is>
-          <t>The description does not provide specific statistical results, point estimates, or confidence intervals. It discusses findings from surveys and studies but does not mention statistically significant results or detailed statistical data.</t>
+          <t>The description does not provide any specific statistical results, point estimates, or confidence intervals. It discusses findings from surveys and studies but does not mention statistically significant results or detailed statistical data.</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -5576,7 +6886,27 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>No, this is not a write-up of an experimental study. It is a report discussing the challenges and strategies related to hybrid working arrangements, based on surveys and existing research.</t>
+          <t>No, this is not a write-up of an experimental study. It is a descriptive report discussing the challenges and strategies related to hybrid working arrangements, based on surveys and existing research.</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>Unsure</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>800</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>The description does not provide information on whether the study showed statistically significant results. It mainly discusses the findings and observations from the RMIT survey and other related research without mentioning statistical significance.</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>Business; Employment; Disability</t>
         </is>
       </c>
     </row>
@@ -5629,14 +6959,14 @@
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr">
         <is>
-          <t>The study showed statistically significant results. The interventions made consumers more skeptical about greenwashing companies, resulting in an approximate 0.6 point shift on a 7-point scale for those who received both the literacy and prebunking interventions compared to the control group. No specific point estimates or confidence intervals are provided in the text.</t>
+          <t>The study showed statistically significant results. The interventions (literacy and prebunking) made consumers more skeptical about greenwashing companies, resulting in an approximate 0.6 point shift on a 7-point scale compared to the control group. No specific point estimates or confidence intervals are provided in the text.</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
           <t>The study appears to be high-quality and interesting for several reasons:
-1. **Large Sample Size and Diversity**: The study involved over 10,000 young people across 10 countries, providing a diverse and substantial sample size that can offer more generalizable insights.
-2. **Focus on a Relevant and Timely Issue**: Greenwashing is a significant concern in today's market</t>
+1. **Large Sample Size and International Scope**: The study involved over 10,000 young people across 10 countries, providing a broad and diverse sample that enhances the generalizability of the findings.
+2. **Timely and Relevant Topic**: Greenwashing is a significant and current issue, especially</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -5646,7 +6976,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>The description mentions that the environmental group Clean State approached the authors to learn more about greenwashing. However, it does not specify any other partners involved in the study. If there were additional partners, they are not mentioned in the provided text.</t>
+          <t>The description mentions that the study was approached by an environmental group called Clean State, but it does not specify any other partners involved in the study. Therefore, I am unsure about any additional partners.</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -5657,6 +6987,26 @@
       <c r="K67" t="inlineStr">
         <is>
           <t>Yes, this is a write-up of an experimental study.</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>Regular RCT</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>10,000</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>Yes, the study showed statistically significant results. The interventions (literacy and pre-bunking) made consumers more skeptical about greenwashing companies, resulting in an approximate 0.6 point shift on a 7-point scale in rating the green credentials of the fictional companies compared to the control group.</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>Environment / energy; Business; Education; Mental health</t>
         </is>
       </c>
     </row>
@@ -5697,12 +7047,12 @@
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr">
         <is>
-          <t>The description does not provide specific statistical results, point estimates, or confidence intervals. It discusses the benefits of shared parental leave and mentions a trial that increased participants' intentions to take parental leave, but it does not include detailed statistical data or results.</t>
+          <t>The description does not provide specific statistical results, point estimates, or confidence intervals. It mentions findings from a project in the UK that encouraged men to take paternity leave, noting that men at two banks viewed colleagues who took paternity leave as equally committed and competent. It also mentions that providing feedback increased intentions to take parental leave, but no specific statistical data or confidence intervals are</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>This description is a blog post or opinion piece rather than a formal study. It discusses the benefits of shared parental leave, particularly for fathers, and shares personal experiences and observations. It also highlights research findings and suggests potential solutions to increase the uptake of paternity leave. However, it does not present a specific study with a detailed methodology or results that would allow for an assessment of</t>
+          <t>This description is a blog post or opinion piece rather than a formal study. It discusses the benefits of shared parental leave, particularly for fathers, and shares personal experiences and insights. It references some research and trials related to parental leave, but it does not present a new study or original research findings. Therefore, it is not classified as a high-quality study in the traditional academic sense</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -5712,7 +7062,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>I am unsure who the partners in this study were based on the provided description.</t>
+          <t>I'm unsure who the partners in this study were based on the provided description.</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -5722,7 +7072,27 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>No, this is not a write-up of an experimental study. It is a descriptive article discussing the benefits of paternal involvement in early childcare, the impact of shared parental leave, and the societal and workplace challenges related to paternity leave. It includes personal anecdotes and references to research findings but does not present a specific experimental study or its results.</t>
+          <t>No, this is not a write-up of an experimental study. It is more of an opinion piece or blog post that discusses the benefits of shared parental leave, personal experiences, and some findings from research and trials related to paternity leave. It includes anecdotal evidence and references to studies but does not present a structured experimental study with a hypothesis, methodology, results, and conclusion</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>Unsure</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>The sample size is not given.</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>The description does not provide specific information about statistically significant results from a study. It mentions findings from a project and a trial related to encouraging men to take paternity leave, but it does not specify statistical significance.</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>Parenting; Employment; Health; Mental health</t>
         </is>
       </c>
     </row>
@@ -5766,7 +7136,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>This description can be classified as a research study or experiment in the field of behavioral science and transportation. It details a practical intervention using financial incentives to encourage public transport use among retail staff in Perth, Australia. The study is high-quality and interesting due to its use of a randomized controlled trial design, which provides robust evidence of the intervention's effectiveness. Additionally, the study's findings</t>
+          <t>This description can be classified as a research study or experiment in the field of behavioral science and transportation. It details a practical intervention aimed at encouraging the use of public transport through financial incentives and behavioral nudges. The study is high-quality and interesting due to its use of a randomized controlled trial design, which provides robust evidence of the intervention's effectiveness. Additionally, the study's focus</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -5787,6 +7157,26 @@
       <c r="K69" t="inlineStr">
         <is>
           <t>Yes, this is a write-up of an experimental study.</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>Randomised Controlled Trial (RCT)</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>The study showed statistically significant results. The financial incentive and email reminders increased the likelihood of taking public transport, with staff being more than twice as likely to use public transport when they received weekly funding and email reminders. Additionally, the proportion of trips taken using public transport remained higher than before the intervention even after the funding period had ended, suggesting a lasting impact on behavior.</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>Transport; Environment / energy; Public administration; Business; Employment</t>
         </is>
       </c>
     </row>
@@ -5833,14 +7223,14 @@
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr">
         <is>
-          <t>The study does not provide specific point estimates, standard errors, or confidence intervals in the text. It mentions that the Digital Compass program increased the number and frequency of self-reported prosocial behaviors, such as complimenting or comforting a friend online, and also increased self-reported antisocial behaviors, such as insulting or excluding someone online. However, it does not specify whether these</t>
+          <t>The study does not provide specific point estimates, standard errors, or confidence intervals in the text. It mentions that the Digital Compass program increased the number and frequency of self-reported prosocial behaviors, such as complimenting or comforting a friend online, and also increased self-reported antisocial behaviors, such as insulting or excluding someone online. However, due to a COVID-19</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
           <t>The study appears to be high-quality and interesting for several reasons:
 1. **Behaviorally-Informed Approach**: The program, Digital Compass, is based on evidence-based practical activities and data-driven insights, which suggests a strong foundation in behavioral science.
-2. **Randomized Controlled Trial (RCT)**: The use of an RCT, which is considered the gold standard in</t>
+2. **Randomized Controlled Trial (RCT)**: The use of an RCT design, even though it faced challenges due</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -5861,6 +7251,26 @@
       <c r="K70" t="inlineStr">
         <is>
           <t>Yes, this is a write-up of an experimental study.</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>Regular RCT</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>461</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>The study did not show statistically significant results due to the inability to complete the RCT as planned because of a COVID-19 outbreak. However, the results suggested that Digital Compass increased both prosocial and antisocial self-reported behaviors among young people.</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>Education; Mental health</t>
         </is>
       </c>
     </row>
@@ -5934,9 +7344,9 @@
       <c r="I71" t="inlineStr">
         <is>
           <t>The partners in this study were:
-1. Direction Interministérielle de la Transformation Publique (DITP) in France
-2. Direction générale de la concurrence, de la consommation et de la répression des fraudes (DGCCRF) in France
-3. Mission interministérielle de lutte contre les drogues et les conduites addictives (MIL</t>
+1. Direction Interministérielle de la Transformation Publique (DITP, France’s modernisation department)
+2. Direction générale de la concurrence, de la consommation et de la répression des fraudes (DGCCRF, France’s consumer and fraud authority)
+3. Mission interministérielle de lutte contre les drogues et</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -5946,7 +7356,27 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>No, this is not a write-up of an experimental study. It is a descriptive article outlining various projects aimed at improving online safety and behavior, with some projects involving experimental elements like randomized controlled trials (RCTs) to evaluate interventions. However, the overall document is more of a report or overview of initiatives rather than a detailed account of a single experimental study.</t>
+          <t>No, this is not a write-up of an experimental study. It is a description of various projects aimed at improving online safety, outlining the objectives, methods, and some preliminary findings or expected outcomes of these projects.</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>Regular RCT</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>The sample size is not given.</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>The study mentioned in the description did not show statistically significant results. The results indicated encouraging directional effects on reducing consumers’ vulnerability to fall for a future scam, but the sample was too small to draw statistically significant conclusions.</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>Education; Health; Mental health; Public administration; Gambling; Business</t>
         </is>
       </c>
     </row>
@@ -6025,6 +7455,26 @@
           <t>Yes, this is a write-up of an experimental study.</t>
         </is>
       </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>Regular RCT</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>1116</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>Yes, the study showed statistically significant results. The intervention led to a 7.3% increase in life satisfaction among students who received the wellbeing prompts compared to those who did not. Additionally, these students reported practicing gratitude more often, talking to supportive people more frequently, and feeling more connected to their community.</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>Education; Mental health; Welfare</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -6075,7 +7525,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>This description can be classified as a research study or report on climate finance and investment behavior. It explores the challenges and opportunities for institutional investors to make climate-friendly decisions, highlighting the importance of behavioral insights to encourage sustainable investments. The study is interesting as it combines financial analysis with behavioral science to propose strategies for shifting investment priorities towards climate risk. However, without specific details on the methodology</t>
+          <t>This description is a research study abstract.</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -6090,12 +7540,32 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Yes, the description of the underlying study is provided. The study investigates the values, attitudes, and behaviors of institutional investors regarding climate-friendly investment decisions, conducted in collaboration with MarketMeter.</t>
+          <t>The description does not provide a specific name for the underlying study.</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>Yes, this is a write-up of an experimental study. The description outlines a research study conducted in collaboration with MarketMeter, where the values, attitudes, and behaviors of 60 institutional investors were investigated to understand their investment decisions related to climate risk. The study involved asking a series of questions to these investors and analyzing their responses to identify barriers and levers for encouraging climate-friendly</t>
+          <t>Yes, this is a write-up of an experimental study. The description outlines a research project where the authors collaborated with MarketMeter to investigate the values, attitudes, and behaviors of 60 institutional investors regarding their investment decisions, particularly in relation to climate risk. The study involved asking a series of questions to these investors and analyzing their responses to understand the prioritization of climate risk and</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>I am unsure.</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>The description does not provide information on whether the study showed statistically significant results. It mainly discusses the findings and insights from the survey of institutional investors regarding their investment priorities and the barriers to prioritizing climate risk.</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>Environment / energy; Business</t>
         </is>
       </c>
     </row>
@@ -6145,14 +7615,12 @@
       <c r="E74" t="inlineStr"/>
       <c r="F74" t="inlineStr">
         <is>
-          <t>The study did not provide specific point estimates, standard errors, or confidence intervals in the text. It reported that across 9 out of 10 behaviors, workers perceived that sexist and sexually harassing behaviors occurred less frequently while working remotely compared to in the office. However, it also noted that almost one in five workers experienced sexism and sexual harassment while working remotely, and one in</t>
+          <t>The study did not provide specific point estimates, standard errors, or confidence intervals in the text. It reported that across 9 out of 10 behaviors, workers perceived that sexist and sexually harassing behaviors occurred less frequently while working remotely compared to in the office. However, it also found that almost one in five workers experienced sexism and sexual harassment while working remotely, and one in</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>The study is interesting and potentially high-quality due to several factors:
-1. **Timeliness and Relevance**: The study addresses a contemporary issue that gained prominence during the COVID-19 pandemic, as remote working became widespread. This makes the research highly relevant to current workplace dynamics.
-2. **Focus on Under-researched Area**: It highlights a gap in existing research regarding</t>
+          <t>This study is particularly high-quality and interesting because it addresses a significant and timely issue: the impact of remote working on workplace sexism and sexual harassment. The study is conducted by BIT in partnership with reputable organizations like Women Victoria and VicHealth, which adds credibility. It uses a representative sample of 1,109 Victorian workers, providing a substantial data set for analysis. The study highlights</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -6172,7 +7640,27 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>Yes, this is a write-up of an experimental study. The description outlines a survey conducted by BIT in partnership with Women Victoria and VicHealth, which collected data from a representative sample of 1,109 Victorian workers about their experiences of sexism and sexual harassment while working remotely during the pandemic. The study aims to understand the prevalence and nature of these behaviors in remote work settings and</t>
+          <t>Yes, this is a write-up of an experimental study. The description outlines a survey conducted by BIT in partnership with Women Victoria and VicHealth, which collected data from a representative sample of 1,109 Victorian workers. The survey aimed to understand the prevalence and nature of sexist and sexually harassing behaviors in remote work settings during the pandemic. The study provides findings and insights based</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>I am unsure.</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>1,109</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>The study did not mention statistically significant results. It reported that workers perceived a reduction in sexist and sexually harassing behaviors while working remotely, but also noted that almost one in five workers experienced such behaviors remotely, and one in three witnessed or heard about them. The study highlighted the need for further research and holistic solutions to address these issues.</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>Employment; Mental health; Business</t>
         </is>
       </c>
     </row>
@@ -6218,12 +7706,14 @@
       <c r="E75" t="inlineStr"/>
       <c r="F75" t="inlineStr">
         <is>
-          <t>The description does not provide specific point estimates, standard errors, or confidence intervals for the results. It mentions that as complexity increased, individuals were less able to choose the cheapest fare, and that certain pricing elements were more difficult for individuals to use in decision-making. However, it does not provide statistical details such as point estimates or confidence intervals.</t>
+          <t>The description does not provide specific point estimates, standard errors, or confidence intervals for the results. It mentions general findings, such as increased complexity leading to decreased comprehension and certain pricing elements being more difficult to understand, but it does not provide statistical details or indicate whether the results were statistically significant.</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>This description can be classified as a research study in the field of behavioral economics and public policy. The study applies behavioral insights to understand how complexity in public transport pricing affects individuals' ability to make cost-effective decisions. It uses an online randomized controlled trial to gather data and provides insights into how different pricing elements impact comprehension and decision-making. The study is high-quality and interesting because it</t>
+          <t>This study appears to be high-quality and interesting for several reasons:
+1. **Use of Behavioral Insights**: The study applies a behavioral insights lens to understand how people interpret complex pricing structures, which is a novel approach in the context of public transport pricing.
+2. **Methodology**: The use of an online randomised controlled trial with a large sample size (2,</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -6244,6 +7734,26 @@
       <c r="K75" t="inlineStr">
         <is>
           <t>Yes, this is a write-up of an experimental study.</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>Regular RCT</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>2011</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>The study found that as pricing complexity increased, individuals were less able to choose the cheapest fare, indicating a decrease in comprehension. It also found that distance-based pricing was rated as more difficult to understand compared to peak-only or combined peak + mode pricing. Additionally, the study observed a shift in decision-making approaches, with more people relying on intuition rather than calculation as complexity increased.</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>Transport; Public administration</t>
         </is>
       </c>
     </row>
@@ -6296,9 +7806,9 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>The study appears to be high-quality and interesting for several reasons:
-1. **Collaboration with Experts**: The study was conducted in partnership with a large Australian bank and Professor Robert Slonim, indicating a collaboration between industry and academia, which can enhance the study's credibility and depth.
-2. **Comprehensive Data Collection**: The study utilized a variety of data sources</t>
+          <t>This description outlines a study that is high-quality and interesting due to several factors:
+1. **Collaboration with Experts**: The study was conducted in partnership with a large Australian bank and Professor Robert Slonim, indicating a collaboration between industry and academia, which can enhance the study's credibility and applicability.
+2. **Comprehensive Data Collection**: The study utilized a variety</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -6318,7 +7828,27 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>Yes, this is a write-up of an experimental study.</t>
+          <t>This description does not appear to be a write-up of an experimental study. It outlines a practical application of behavioural science principles to support physical distancing in a workplace setting, specifically at a major Australian bank. The approach involved collecting observational data, surveys, and focus groups to understand behaviours and identify opportunities for change, but it does not describe a controlled experiment with variables and a hypothesis being</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>I am unsure.</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>The sample size is not given.</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>The description does not provide specific information about statistically significant results. It focuses on observations, surveys, and focus groups to understand behaviors and suggests practical changes to support physical distancing. If there were statistically significant results, they are not mentioned in the provided text.</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>Health; Business; Employment</t>
         </is>
       </c>
     </row>
@@ -6359,9 +7889,9 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>The study appears to be high-quality and interesting for several reasons:
-1. **Relevance and Timeliness**: The study addresses the pressing issue of youth unemployment in the context of the COVID-19 pandemic, which has significantly altered the job market and the nature of work. This makes the research highly relevant and timely.
-2. **Comprehensive Analysis**: It critiques the</t>
+          <t>This description highlights a study that is high-quality and interesting due to several factors:
+1. **Relevance and Timeliness**: The study addresses the pressing issue of youth unemployment exacerbated by the COVID-19 pandemic, making it highly relevant to current societal challenges.
+2. **Comprehensive Analysis**: It critiques the existing education system in Australia, particularly the focus on the</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -6371,17 +7901,37 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>I'm unsure who the partners in this study were based on the provided description.</t>
+          <t>The description does not provide specific information about the partners involved in the study. It mentions the Council of Australian Governments Education Council and references research that fed into the Education Council’s report, but it does not explicitly list any partners.</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>No, a specific name or description of the underlying study is not provided in the abstract.</t>
+          <t>No, a specific name or description of the underlying study is not provided.</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
           <t>No, this is not a write-up of an experimental study. It is a descriptive report discussing the current state of the education system in Australia, its impact on young people's preparedness for the future of work, and recommendations for improvement.</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>I am unsure.</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>The sample size is not given.</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>The description does not provide specific information about statistically significant results or detailed outcomes of the study. It mainly discusses the findings and recommendations regarding the education system and the preparation of young people for the future of work.</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>Education; Employment</t>
         </is>
       </c>
     </row>
@@ -6426,14 +7976,14 @@
       <c r="E78" t="inlineStr"/>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Yes, the study showed statistically significant results. The framing which clarified who set the reference price had the biggest impact, improving consumer comprehension by 15.8%. However, specific point estimates or confidence intervals are not provided in the text.</t>
+          <t>Yes, the study showed statistically significant results. The use of clear descriptive language increased consumer comprehension by 15.8%. However, there are no specific point estimates or confidence intervals provided in the text.</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>This study is particularly high-quality and interesting for several reasons:
-1. **Consumer-Centric Approach**: The study focuses on understanding consumer behavior and comprehension, which is crucial for effective policy implementation. By directly engaging with consumers through interviews, the researchers gained valuable insights into how people interpret pricing information.
-2. **Iterative Methodology**: The use of prototyping and iteration</t>
+          <t>This study appears to be high-quality and interesting for several reasons:
+1. **Consumer-Centric Approach**: The study focuses on understanding consumer behavior and comprehension, which is crucial for effective policy implementation. By directly engaging with consumers through interviews, the study gains valuable insights into how people interpret pricing information.
+2. **Iterative Methodology**: The use of prototyping and</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -6454,6 +8004,26 @@
       <c r="K78" t="inlineStr">
         <is>
           <t>Yes, this is a write-up of an experimental study.</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>Regular RCT</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>The sample size is not given.</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>Yes, the study showed statistically significant results. The results indicated that using clear descriptive language increased consumer comprehension by 15.8% compared to the control group. The framing which clarified who set the reference price had the biggest impact on comprehension.</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>Environment / energy; Public administration; Business</t>
         </is>
       </c>
     </row>
@@ -6493,12 +8063,12 @@
       <c r="E79" t="inlineStr"/>
       <c r="F79" t="inlineStr">
         <is>
-          <t>The description does not provide specific statistical results, point estimates, or confidence intervals. It mentions some observed effects, such as the increase in average credit card repayments from £225 to £276 and the increase in engagement with retirement planning from 1% to 11%, but it does not specify whether these results are statistically significant or provide any confidence intervals.</t>
+          <t>The description does not provide specific statistical results, point estimates, or confidence intervals. It mentions some observed effects, such as the increase in average credit card repayments from £225 to £276 and the increase in engagement with retirement planning from 1% to 11%, but it does not specify whether these results are statistically significant or provide any statistical measures like standard errors or confidence intervals</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>This description is a high-quality and interesting study because it challenges the traditional reliance on disclosure as a means of consumer protection in financial markets. It provides evidence and arguments that disclosure alone is insufficient and suggests alternative approaches for regulators to consider. The study is interesting because it proposes holding firms accountable for the outcomes of customer decision-making, rather than just the information provided. It also highlights the</t>
+          <t>This description is a high-quality and interesting study because it challenges the traditional reliance on disclosure as a regulatory tool in the financial sector. It provides evidence and arguments that disclosure alone is insufficient for consumer protection and suggests alternative approaches, such as holding firms accountable for the outcomes of customer decision-making. The study also highlights the potential of using data-driven methods to assess product suitability for consumers and</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -6513,12 +8083,32 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>No, a name or description of the underlying study is not provided.</t>
+          <t>No, a specific name or description of the underlying study is not provided.</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
           <t>No, this is not a write-up of an experimental study. It is a discussion and analysis of a report by the Australian Securities and Investments Commission (ASIC) and the Dutch Authority for the Financial Markets (AFM) on the limitations of disclosure in financial regulation and suggests alternative approaches for regulators.</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>I'm unsure.</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>The sample size is not given.</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>The description does not provide specific statistical results or mention whether the study showed statistically significant results. It discusses general findings and recommendations from the report by ASIC and AFM, as well as insights from other experiments, but does not provide detailed statistical data or significance levels.</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>Business; Public administration</t>
         </is>
       </c>
     </row>
@@ -6566,7 +8156,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>This description can be classified as a research study or intervention report. It details an evidence-based approach to encouraging bystander intervention in cases of sexual harassment, using behavioural insights and social norms messaging. The study is high-quality and interesting because it involves a large sample size (nearly 30,000 participants), uses a controlled trial design to test the effectiveness of different messaging strategies,</t>
+          <t>This description can be classified as a research study or intervention report. It outlines a study conducted by The Behavioural Insights Team in collaboration with the Victorian Health Promotion Foundation and two universities. The study aimed to encourage bystander intervention in cases of sexual harassment and sexism through behaviorally-informed emails. The study is interesting because it uses behavioral science techniques, such as social norms messaging, to</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -6586,7 +8176,27 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Yes, this is a write-up of an experimental study. The description outlines a study conducted by The Behavioural Insights Team in collaboration with the Victorian Health Promotion Foundation and two universities. The study involved testing different messages to encourage bystander intervention in cases of sexual harassment and sexism, using a controlled trial with a control group and experimental groups receiving different types of messaging. The results and</t>
+          <t>Yes, this is a write-up of an experimental study. The description outlines a trial conducted by The Behavioural Insights Team in collaboration with the Victorian Health Promotion Foundation and two universities. The study tested the effectiveness of behaviourally-informed emails with different social norms messages on encouraging bystander action against sexual harassment and sexism. The results were compared to a control group that did not receive the</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>Clustered RCT</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>30,000</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>The study showed statistically significant results. The results indicated that people who received the majority social norms messaging were more likely to take action against sexual harassment compared to the control group.</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>Education; Justice; Public administration</t>
         </is>
       </c>
     </row>
@@ -6637,7 +8247,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>This description is a reflective piece rather than a study, discussing the evolution and application of behavioral insights (BI) in policy-making, particularly in the UK and Australia. It highlights the integration of behavioral science into various sectors, such as healthcare and infrastructure, and emphasizes the importance of understanding human behavior in addressing policy challenges. The piece also touches on the role of BI in government and</t>
+          <t>This description is a high-quality and interesting study because it provides a comprehensive overview of the evolution and application of behavioral insights (BI) in public policy, particularly in the UK and Australia. It highlights the historical context and development of BI, referencing influential figures and foundational papers that have shaped the field. The study also discusses the integration of behavioral and implementation science into medicine, showcasing innovative</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -6647,7 +8257,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>The partners mentioned in the study include the National University of Singapore’s (NUS) Medical School, the Behavioural Insights Team (BIT), New South Wales (NSW) Government, the Victorian Government, the Commonwealth BETA teams, the Vincent Family Fairfax Foundation, and VicHealth.</t>
+          <t>The partners mentioned in the study include the National University of Singapore’s (NUS) Medical School, the Behavioural Insights Team (BIT), New South Wales (NSW) Government, Victorian Government, Commonwealth BETA teams, Vincent Family Fairfax Foundation, and VicHealth.</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -6658,6 +8268,26 @@
       <c r="K81" t="inlineStr">
         <is>
           <t>No, this is not a write-up of an experimental study. It is a reflective article discussing the application and impact of behavioral insights in policy-making, particularly in the UK and Australia, and the potential future directions for integrating behavioral science into various fields such as medicine and infrastructure development.</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>I'm unsure.</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>The sample size is not given.</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>The description provided does not mention any specific study or statistical results. It is a narrative discussing the application and evolution of behavioral insights in policy-making, particularly in the UK and Australia, and the establishment of a new institute in Singapore. Therefore, there are no statistically significant results or study outcomes mentioned.</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>Health; Public administration; Transport; Education</t>
         </is>
       </c>
     </row>
@@ -6702,12 +8332,12 @@
       <c r="E82" t="inlineStr"/>
       <c r="F82" t="inlineStr">
         <is>
-          <t>The description does not provide any specific study results, point estimates, or confidence intervals. It discusses the potential of using behavioral insights to help workers transition after job loss but does not mention any statistically significant results or specific data from a study.</t>
+          <t>The description does not provide any specific study results, point estimates, or confidence intervals. It discusses the potential of a behavioral approach to help workers reorientate and retrain following job loss, but it does not mention any statistically significant results or specific data from a study.</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>The description provided does not explicitly indicate whether the study is high-quality or particularly interesting. However, it does present a thoughtful analysis of the challenges faced by individuals and communities during economic transitions, particularly after job loss due to regional economic decline. The study's focus on behavioral insights and the psychological aspects of job loss and career transition adds depth to the discussion, which could be considered interesting</t>
+          <t>The description provided is a high-quality and interesting study because it addresses a significant and timely issue: the impact of regional economic decline and job loss on individuals and communities. It offers a comprehensive analysis of the psychological and practical challenges faced by individuals transitioning careers after job loss, particularly in developed countries. The study is interesting as it proposes a behavioral approach to aid in career transitions, emphasizing</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -6722,12 +8352,32 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>The description does not provide a specific name or title for the underlying study.</t>
+          <t>The description does not provide a specific name or description of an underlying study.</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
           <t>No, this is not a write-up of an experimental study. It is a descriptive article discussing the challenges and potential solutions for individuals and communities facing economic transitions due to job loss, with a focus on behavioral insights and strategies for successful career transitions.</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>I am unsure.</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>The sample size is not given.</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>The description does not provide specific information about a study or its statistically significant results. It discusses the challenges of career transitions after job loss and suggests a behavioural approach to address these challenges, but it does not mention any specific study results.</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>Employment; Mental health; Aging</t>
         </is>
       </c>
     </row>
